--- a/Översikt SÖLVESBORG.xlsx
+++ b/Översikt SÖLVESBORG.xlsx
@@ -568,14 +568,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 48309-2024</t>
+          <t>A 21769-2023</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45590</v>
+        <v>45065</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -588,153 +588,153 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>1</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
+          <t>Skogsalm</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1083/artfynd/A 21769-2023 artfynd.xlsx", "A 21769-2023")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1083/kartor/A 21769-2023 karta.png", "A 21769-2023")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1083/klagomål/A 21769-2023 FSC-klagomål.docx", "A 21769-2023")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1083/klagomålsmail/A 21769-2023 FSC-klagomål mail.docx", "A 21769-2023")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1083/tillsyn/A 21769-2023 tillsynsbegäran.docx", "A 21769-2023")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1083/tillsynsmail/A 21769-2023 tillsynsbegäran mail.docx", "A 21769-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A 48309-2024</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>45590</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>BLEKINGE LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>SÖLVESBORG</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
+        <is>
           <t>Revlummer</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1083/artfynd/A 48309-2024 artfynd.xlsx", "A 48309-2024")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1083/kartor/A 48309-2024 karta.png", "A 48309-2024")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1083/klagomål/A 48309-2024 FSC-klagomål.docx", "A 48309-2024")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1083/klagomålsmail/A 48309-2024 FSC-klagomål mail.docx", "A 48309-2024")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1083/tillsyn/A 48309-2024 tillsynsbegäran.docx", "A 48309-2024")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1083/tillsynsmail/A 48309-2024 tillsynsbegäran mail.docx", "A 48309-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>A 21769-2023</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>45065</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>BLEKINGE LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>SÖLVESBORG</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" s="2" t="inlineStr">
-        <is>
-          <t>Skogsalm</t>
-        </is>
-      </c>
-      <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1083/artfynd/A 21769-2023 artfynd.xlsx", "A 21769-2023")</f>
-        <v/>
-      </c>
-      <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1083/kartor/A 21769-2023 karta.png", "A 21769-2023")</f>
-        <v/>
-      </c>
-      <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1083/klagomål/A 21769-2023 FSC-klagomål.docx", "A 21769-2023")</f>
-        <v/>
-      </c>
-      <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1083/klagomålsmail/A 21769-2023 FSC-klagomål mail.docx", "A 21769-2023")</f>
-        <v/>
-      </c>
-      <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1083/tillsyn/A 21769-2023 tillsynsbegäran.docx", "A 21769-2023")</f>
-        <v/>
-      </c>
-      <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1083/tillsynsmail/A 21769-2023 tillsynsbegäran mail.docx", "A 21769-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>44253</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>44509</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>44356</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44355</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>44488</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44365</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>44616</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>44355</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44355</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>44641</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1308,14 +1308,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 38317-2025</t>
+          <t>A 10274-2022</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45883.48207175926</v>
+        <v>44622</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1365,14 +1365,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 38406-2025</t>
+          <t>A 19827-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45883.59122685185</v>
+        <v>45433.35063657408</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1422,14 +1422,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 46500-2023</t>
+          <t>A 10403-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45197</v>
+        <v>44623</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1479,14 +1479,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 10274-2022</t>
+          <t>A 31261-2021</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44622</v>
+        <v>44368</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.4</v>
+        <v>3.1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1536,14 +1536,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 24313-2025</t>
+          <t>A 46500-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45797.52783564815</v>
+        <v>45197</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.7</v>
+        <v>0.5</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1593,14 +1593,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 33766-2024</t>
+          <t>A 63571-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45520</v>
+        <v>45275.39289351852</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1650,14 +1650,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 39130-2024</t>
+          <t>A 17612-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45548</v>
+        <v>45416.45724537037</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1707,14 +1707,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 22561-2023</t>
+          <t>A 24313-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45069</v>
+        <v>45797.52783564815</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.5</v>
+        <v>3.7</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1764,14 +1764,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 26493-2023</t>
+          <t>A 7134-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45092</v>
+        <v>44970.43828703704</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1821,14 +1821,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 7134-2023</t>
+          <t>A 27402-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44970.43828703704</v>
+        <v>45812.71793981481</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.5</v>
+        <v>3.7</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1878,14 +1878,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 40054-2025</t>
+          <t>A 14136-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45894</v>
+        <v>45738</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1935,14 +1935,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 20320-2025</t>
+          <t>A 44871-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45775.33391203704</v>
+        <v>45190</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1992,14 +1992,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 52086-2023</t>
+          <t>A 40054-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45216</v>
+        <v>45894</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>8.1</v>
+        <v>2.3</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2049,14 +2049,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 19827-2024</t>
+          <t>A 52086-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45433.35063657408</v>
+        <v>45216</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.5</v>
+        <v>8.1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2106,14 +2106,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 28478-2023</t>
+          <t>A 22906-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45103</v>
+        <v>45448</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>45901.60275462963</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2220,14 +2220,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 52084-2023</t>
+          <t>A 20164-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45216</v>
+        <v>45053</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2277,14 +2277,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 20127-2025</t>
+          <t>A 44752-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45772</v>
+        <v>45184</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.1</v>
+        <v>4.6</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2334,14 +2334,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 20093-2025</t>
+          <t>A 20316-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45772</v>
+        <v>45775.32983796296</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2391,14 +2391,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 20155-2025</t>
+          <t>A 32436-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45772</v>
+        <v>45838</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.4</v>
+        <v>6.3</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2448,14 +2448,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 32436-2025</t>
+          <t>A 44493-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45838</v>
+        <v>45916</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>6.3</v>
+        <v>3.4</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2512,7 +2512,7 @@
         <v>45916</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2562,14 +2562,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 44493-2025</t>
+          <t>A 28228-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45916</v>
+        <v>44355</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3.4</v>
+        <v>1.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2619,14 +2619,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 1070-2022</t>
+          <t>A 52084-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44571</v>
+        <v>45216</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2676,14 +2676,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 12298-2022</t>
+          <t>A 2327-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44641</v>
+        <v>45673.63548611111</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2733,14 +2733,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 22906-2024</t>
+          <t>A 32517-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45448</v>
+        <v>45838.47891203704</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2790,14 +2790,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 10390-2024</t>
+          <t>A 32525-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45365</v>
+        <v>45838.48854166667</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2847,14 +2847,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 33742-2024</t>
+          <t>A 2325-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45520</v>
+        <v>45673.63410879629</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2904,14 +2904,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 48751-2025</t>
+          <t>A 32514-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45936</v>
+        <v>45838.475625</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2961,14 +2961,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 17612-2024</t>
+          <t>A 34394-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45416.45724537037</v>
+        <v>45525</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3018,14 +3018,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 16188-2022</t>
+          <t>A 32974-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44669</v>
+        <v>45839.7596875</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.7</v>
+        <v>1.9</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3075,14 +3075,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 51772-2025</t>
+          <t>A 12298-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45951</v>
+        <v>44641</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3132,14 +3132,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 12848-2022</t>
+          <t>A 33817-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44642</v>
+        <v>45842.46084490741</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3189,14 +3189,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 53293-2025</t>
+          <t>A 5407-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45958</v>
+        <v>45331.60685185185</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3246,14 +3246,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 52893-2025</t>
+          <t>A 47242-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45957</v>
+        <v>45197</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.7</v>
+        <v>11.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3303,14 +3303,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 14136-2025</t>
+          <t>A 30992-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45738</v>
+        <v>44768.536875</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3360,14 +3360,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 16297-2022</t>
+          <t>A 10390-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44670.55493055555</v>
+        <v>45365</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3417,14 +3417,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 49688-2025</t>
+          <t>A 51772-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45939</v>
+        <v>45951</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>16.1</v>
+        <v>0.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3474,14 +3474,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 63571-2023</t>
+          <t>A 2200-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45275.39289351852</v>
+        <v>45673.393125</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3531,14 +3531,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 26478-2023</t>
+          <t>A 2210-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45092</v>
+        <v>45673.43063657408</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4.8</v>
+        <v>1.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3588,14 +3588,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 28080-2023</t>
+          <t>A 52893-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45099</v>
+        <v>45957</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3645,14 +3645,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 9602-2023</t>
+          <t>A 53293-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44983.78570601852</v>
+        <v>45958</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3702,14 +3702,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 56570-2025</t>
+          <t>A 20320-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45974</v>
+        <v>45775.33391203704</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3759,14 +3759,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 62334-2023</t>
+          <t>A 38317-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45266</v>
+        <v>45883.48207175926</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>6.2</v>
+        <v>2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3816,14 +3816,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 28228-2021</t>
+          <t>A 38406-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44355</v>
+        <v>45883.59122685185</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3873,14 +3873,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 31261-2021</t>
+          <t>A 8523-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44368</v>
+        <v>45709</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.1</v>
+        <v>6.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3930,14 +3930,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 34727-2021</t>
+          <t>A 56570-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44382</v>
+        <v>45974</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.8</v>
+        <v>4.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -3987,14 +3987,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 2200-2025</t>
+          <t>A 61767-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45673.393125</v>
+        <v>44917.50982638889</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4006,8 +4006,13 @@
           <t>SÖLVESBORG</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4044,14 +4049,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 2210-2025</t>
+          <t>A 16188-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45673.43063657408</v>
+        <v>44669</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4064,7 +4069,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4101,14 +4106,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 44871-2023</t>
+          <t>A 2089-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45190</v>
+        <v>45309</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4121,7 +4126,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4158,14 +4163,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 47242-2023</t>
+          <t>A 20093-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45197</v>
+        <v>45772</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4178,7 +4183,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>11.6</v>
+        <v>2.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4215,14 +4220,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 8130-2025</t>
+          <t>A 8837-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45707</v>
+        <v>45356</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4235,7 +4240,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4272,14 +4277,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 30992-2022</t>
+          <t>A 20155-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44768.536875</v>
+        <v>45772</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4292,7 +4297,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4329,14 +4334,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 66447-2021</t>
+          <t>A 20127-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44518.82853009259</v>
+        <v>45772</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4349,7 +4354,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4386,14 +4391,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 52089-2023</t>
+          <t>A 2832-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45216</v>
+        <v>44945</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4406,7 +4411,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.8</v>
+        <v>1.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4443,14 +4448,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 2327-2025</t>
+          <t>A 48751-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45673.63548611111</v>
+        <v>45936</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4463,7 +4468,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4500,14 +4505,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 2325-2025</t>
+          <t>A 51284-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45673.63410879629</v>
+        <v>45219</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4520,7 +4525,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4564,7 +4569,7 @@
         <v>45331</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4614,14 +4619,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 5407-2024</t>
+          <t>A 9316-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45331.60685185185</v>
+        <v>45358</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4634,7 +4639,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4671,14 +4676,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 9316-2024</t>
+          <t>A 39130-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45358</v>
+        <v>45548</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4691,7 +4696,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4728,14 +4733,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 10403-2022</t>
+          <t>A 66447-2021</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44623</v>
+        <v>44518.82853009259</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4748,7 +4753,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4785,14 +4790,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 8837-2024</t>
+          <t>A 33766-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45356</v>
+        <v>45520</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4805,7 +4810,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4842,14 +4847,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 2832-2023</t>
+          <t>A 49688-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44945</v>
+        <v>45939</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4862,7 +4867,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.1</v>
+        <v>16.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4899,14 +4904,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 20164-2023</t>
+          <t>A 1070-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45053</v>
+        <v>44571</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4919,7 +4924,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -4956,14 +4961,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 61767-2022</t>
+          <t>A 28478-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44917.50982638889</v>
+        <v>45103</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4975,13 +4980,8 @@
           <t>SÖLVESBORG</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5018,14 +5018,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 8523-2025</t>
+          <t>A 12848-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45709</v>
+        <v>44642</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>6.7</v>
+        <v>3.1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5075,14 +5075,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 60469-2023</t>
+          <t>A 28080-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45258</v>
+        <v>45099</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>8.4</v>
+        <v>1.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5132,14 +5132,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 44752-2023</t>
+          <t>A 52089-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45184</v>
+        <v>45216</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5189,14 +5189,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 20316-2025</t>
+          <t>A 62334-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45775.32983796296</v>
+        <v>45266</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.8</v>
+        <v>6.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5246,14 +5246,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 51284-2023</t>
+          <t>A 26493-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45219</v>
+        <v>45092</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5303,14 +5303,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 2089-2024</t>
+          <t>A 22561-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45309</v>
+        <v>45069</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5360,14 +5360,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 34394-2024</t>
+          <t>A 8130-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45525</v>
+        <v>45707</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5417,14 +5417,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 21464-2025</t>
+          <t>A 26478-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45782.57175925926</v>
+        <v>45092</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5474,14 +5474,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 14475-2025</t>
+          <t>A 34727-2021</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45741</v>
+        <v>44382</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5531,14 +5531,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 14481-2025</t>
+          <t>A 60469-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45741</v>
+        <v>45258</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.7</v>
+        <v>8.4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5588,14 +5588,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 445-2024</t>
+          <t>A 9602-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45296</v>
+        <v>44983.78570601852</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5645,14 +5645,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 10997-2024</t>
+          <t>A 16297-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45370.56016203704</v>
+        <v>44670.55493055555</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5702,14 +5702,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 27402-2025</t>
+          <t>A 33742-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45812.71793981481</v>
+        <v>45520</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3.7</v>
+        <v>0.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5759,14 +5759,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 32517-2025</t>
+          <t>A 21464-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45838.47891203704</v>
+        <v>45782.57175925926</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.6</v>
+        <v>5.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5816,14 +5816,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 32514-2025</t>
+          <t>A 14475-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45838.475625</v>
+        <v>45741</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.5</v>
+        <v>3.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5873,14 +5873,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 32525-2025</t>
+          <t>A 14481-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45838.48854166667</v>
+        <v>45741</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -5930,14 +5930,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 32974-2025</t>
+          <t>A 445-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45839.7596875</v>
+        <v>45296</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -5987,14 +5987,14 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 33817-2025</t>
+          <t>A 10997-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45842.46084490741</v>
+        <v>45370.56016203704</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>

--- a/Översikt SÖLVESBORG.xlsx
+++ b/Översikt SÖLVESBORG.xlsx
@@ -575,7 +575,7 @@
         <v>45065</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>45590</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>44253</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>44509</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>44356</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44355</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>44488</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44365</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>44616</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>44355</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44355</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>44641</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44622</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>45433.35063657408</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>44623</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>44368</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45197</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>45275.39289351852</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>45416.45724537037</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>45797.52783564815</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>44970.43828703704</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>45812.71793981481</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>45738</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>45190</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>45894</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>45216</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>45448</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>45901.60275462963</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>45053</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>45184</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>45775.32983796296</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>45838</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>45916</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>45916</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>44355</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>45216</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>45673.63548611111</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>45838.47891203704</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>45838.48854166667</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>45673.63410879629</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>45838.475625</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>45525</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>45839.7596875</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>44641</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>45842.46084490741</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>45331.60685185185</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>45197</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>44768.536875</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>45365</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>45951</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         <v>45673.393125</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>45673.43063657408</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>45957</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>45958</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>45775.33391203704</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>45883.48207175926</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>45883.59122685185</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>45709</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3937,7 +3937,7 @@
         <v>45974</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>44917.50982638889</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>44669</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>45309</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>45772</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>45356</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         <v>45772</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>45772</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>44945</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         <v>45936</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>45219</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>45331</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>45358</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>45548</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>44518.82853009259</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>45520</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>45939</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>44571</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>45103</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>44642</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>45099</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>45216</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>45266</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>45092</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>45069</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>45707</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>45092</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>44382</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>45258</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>44983.78570601852</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>44670.55493055555</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>45520</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>45782.57175925926</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>45741</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>45741</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>45296</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>45370.56016203704</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>

--- a/Översikt SÖLVESBORG.xlsx
+++ b/Översikt SÖLVESBORG.xlsx
@@ -575,7 +575,7 @@
         <v>45065</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>45590</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>44253</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>44509</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>44356</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44355</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>44488</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44365</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>44616</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>44355</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44355</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>44641</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44622</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>45433.35063657408</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>44623</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>44368</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45197</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>45275.39289351852</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>45416.45724537037</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>45797.52783564815</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>44970.43828703704</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>45812.71793981481</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>45738</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>45190</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>45894</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>45216</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>45448</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>45901.60275462963</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>45053</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>45184</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>45775.32983796296</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>45838</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>45916</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>45916</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>44355</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>45216</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>45673.63548611111</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>45838.47891203704</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>45838.48854166667</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>45673.63410879629</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>45838.475625</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>45525</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>45839.7596875</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>44641</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>45842.46084490741</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>45331.60685185185</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>45197</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>44768.536875</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>45365</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>45951</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         <v>45673.393125</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>45673.43063657408</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>45957</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>45958</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>45775.33391203704</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>45883.48207175926</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>45883.59122685185</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>45709</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3937,7 +3937,7 @@
         <v>45974</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>44917.50982638889</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>44669</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>45309</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>45772</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>45356</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         <v>45772</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>45772</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>44945</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         <v>45936</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>45219</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>45331</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>45358</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>45548</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>44518.82853009259</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>45520</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>45939</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>44571</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>45103</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>44642</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>45099</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>45216</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>45266</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>45092</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>45069</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>45707</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>45092</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>44382</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>45258</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>44983.78570601852</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>44670.55493055555</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>45520</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>45782.57175925926</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>45741</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>45741</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>45296</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>45370.56016203704</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>

--- a/Översikt SÖLVESBORG.xlsx
+++ b/Översikt SÖLVESBORG.xlsx
@@ -575,7 +575,7 @@
         <v>45065</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>45590</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>44253</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>44509</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>44356</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44355</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>44488</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44365</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>44616</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>44355</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44355</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>44641</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44622</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1365,14 +1365,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 19827-2024</t>
+          <t>A 22561-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45433.35063657408</v>
+        <v>45069</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1422,14 +1422,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 10403-2022</t>
+          <t>A 20320-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44623</v>
+        <v>45775.33391203704</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1479,14 +1479,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 31261-2021</t>
+          <t>A 52084-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44368</v>
+        <v>45216</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1536,14 +1536,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 46500-2023</t>
+          <t>A 22906-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45197</v>
+        <v>45448</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1593,14 +1593,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 63571-2023</t>
+          <t>A 12298-2022</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45275.39289351852</v>
+        <v>44641</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1650,14 +1650,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 17612-2024</t>
+          <t>A 10390-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45416.45724537037</v>
+        <v>45365</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1707,14 +1707,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 24313-2025</t>
+          <t>A 17612-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45797.52783564815</v>
+        <v>45416.45724537037</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1764,14 +1764,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 7134-2023</t>
+          <t>A 38317-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44970.43828703704</v>
+        <v>45883.48207175926</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1821,14 +1821,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 27402-2025</t>
+          <t>A 38406-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45812.71793981481</v>
+        <v>45883.59122685185</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.7</v>
+        <v>0.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1878,14 +1878,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 14136-2025</t>
+          <t>A 16188-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45738</v>
+        <v>44669</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.5</v>
+        <v>3.7</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1935,14 +1935,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 44871-2023</t>
+          <t>A 12848-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45190</v>
+        <v>44642</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1992,14 +1992,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 40054-2025</t>
+          <t>A 24313-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45894</v>
+        <v>45797.52783564815</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.3</v>
+        <v>3.7</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2049,14 +2049,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 52086-2023</t>
+          <t>A 14136-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45216</v>
+        <v>45738</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>8.1</v>
+        <v>0.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2106,14 +2106,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 22906-2024</t>
+          <t>A 16297-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45448</v>
+        <v>44670.55493055555</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2163,14 +2163,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 41565-2025</t>
+          <t>A 32517-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45901.60275462963</v>
+        <v>45838.47891203704</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.9</v>
+        <v>1.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2220,14 +2220,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 20164-2023</t>
+          <t>A 32514-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45053</v>
+        <v>45838.475625</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2277,14 +2277,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 44752-2023</t>
+          <t>A 32525-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45184</v>
+        <v>45838.48854166667</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>4.6</v>
+        <v>0.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2334,14 +2334,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 20316-2025</t>
+          <t>A 40054-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45775.32983796296</v>
+        <v>45894</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2391,14 +2391,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 32436-2025</t>
+          <t>A 32974-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45838</v>
+        <v>45839.7596875</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>6.3</v>
+        <v>1.9</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2448,14 +2448,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 44493-2025</t>
+          <t>A 63571-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45916</v>
+        <v>45275.39289351852</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2505,14 +2505,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 44495-2025</t>
+          <t>A 33817-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45916</v>
+        <v>45842.46084490741</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>5.2</v>
+        <v>1.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2562,14 +2562,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 28228-2021</t>
+          <t>A 26478-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44355</v>
+        <v>45092</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.1</v>
+        <v>4.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2619,14 +2619,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 52084-2023</t>
+          <t>A 28080-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45216</v>
+        <v>45099</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2676,14 +2676,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 2327-2025</t>
+          <t>A 41565-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45673.63548611111</v>
+        <v>45901.60275462963</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>3.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2733,14 +2733,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 32517-2025</t>
+          <t>A 62334-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45838.47891203704</v>
+        <v>45266</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.6</v>
+        <v>6.2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2790,14 +2790,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 32525-2025</t>
+          <t>A 28228-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45838.48854166667</v>
+        <v>44355</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2847,14 +2847,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 2325-2025</t>
+          <t>A 32436-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45673.63410879629</v>
+        <v>45838</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.6</v>
+        <v>6.3</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2904,14 +2904,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 32514-2025</t>
+          <t>A 44495-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45838.475625</v>
+        <v>45916</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.5</v>
+        <v>5.2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2961,14 +2961,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 34394-2024</t>
+          <t>A 44493-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45525</v>
+        <v>45916</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.1</v>
+        <v>3.4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3018,14 +3018,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 32974-2025</t>
+          <t>A 31261-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45839.7596875</v>
+        <v>44368</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3075,14 +3075,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 12298-2022</t>
+          <t>A 34727-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44641</v>
+        <v>44382</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3132,14 +3132,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 33817-2025</t>
+          <t>A 46500-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45842.46084490741</v>
+        <v>45197</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3189,14 +3189,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 5407-2024</t>
+          <t>A 33766-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45331.60685185185</v>
+        <v>45520</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3246,14 +3246,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 47242-2023</t>
+          <t>A 39130-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45197</v>
+        <v>45548</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>11.6</v>
+        <v>2.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3303,14 +3303,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 30992-2022</t>
+          <t>A 26493-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44768.536875</v>
+        <v>45092</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3360,14 +3360,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 10390-2024</t>
+          <t>A 7134-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45365</v>
+        <v>44970.43828703704</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3424,7 +3424,7 @@
         <v>45951</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3474,14 +3474,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 2200-2025</t>
+          <t>A 52086-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45673.393125</v>
+        <v>45216</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.5</v>
+        <v>8.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3531,14 +3531,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 2210-2025</t>
+          <t>A 19827-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45673.43063657408</v>
+        <v>45433.35063657408</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3588,14 +3588,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 52893-2025</t>
+          <t>A 53293-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45957</v>
+        <v>45958</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3645,14 +3645,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 53293-2025</t>
+          <t>A 52893-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45958</v>
+        <v>45957</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3702,14 +3702,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 20320-2025</t>
+          <t>A 28478-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45775.33391203704</v>
+        <v>45103</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3759,14 +3759,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 38317-2025</t>
+          <t>A 1070-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45883.48207175926</v>
+        <v>44571</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3816,14 +3816,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 38406-2025</t>
+          <t>A 33742-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45883.59122685185</v>
+        <v>45520</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3873,14 +3873,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 8523-2025</t>
+          <t>A 56570-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45709</v>
+        <v>45974</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>6.7</v>
+        <v>4.4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3930,14 +3930,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 56570-2025</t>
+          <t>A 9602-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45974</v>
+        <v>44983.78570601852</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4.4</v>
+        <v>2.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -3987,14 +3987,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 61767-2022</t>
+          <t>A 2200-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44917.50982638889</v>
+        <v>45673.393125</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4006,13 +4006,8 @@
           <t>SÖLVESBORG</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4049,14 +4044,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 16188-2022</t>
+          <t>A 2210-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44669</v>
+        <v>45673.43063657408</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4069,7 +4064,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.7</v>
+        <v>1.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4106,14 +4101,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 2089-2024</t>
+          <t>A 20127-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45309</v>
+        <v>45772</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4126,7 +4121,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.7</v>
+        <v>2.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4170,7 +4165,7 @@
         <v>45772</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4220,14 +4215,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 8837-2024</t>
+          <t>A 20155-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45356</v>
+        <v>45772</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4240,7 +4235,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4277,14 +4272,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 20155-2025</t>
+          <t>A 44871-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45772</v>
+        <v>45190</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4297,7 +4292,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4334,14 +4329,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 20127-2025</t>
+          <t>A 47242-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45772</v>
+        <v>45197</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4354,7 +4349,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.1</v>
+        <v>11.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4391,14 +4386,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 2832-2023</t>
+          <t>A 8130-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44945</v>
+        <v>45707</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4411,7 +4406,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4455,7 +4450,7 @@
         <v>45936</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4505,14 +4500,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 51284-2023</t>
+          <t>A 30992-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45219</v>
+        <v>44768.536875</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4525,7 +4520,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4562,14 +4557,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 5339-2024</t>
+          <t>A 66447-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45331</v>
+        <v>44518.82853009259</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4582,7 +4577,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4619,14 +4614,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 9316-2024</t>
+          <t>A 52089-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45358</v>
+        <v>45216</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4639,7 +4634,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4676,14 +4671,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 39130-2024</t>
+          <t>A 2327-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45548</v>
+        <v>45673.63548611111</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4696,7 +4691,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4733,14 +4728,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 66447-2021</t>
+          <t>A 2325-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44518.82853009259</v>
+        <v>45673.63410879629</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4753,7 +4748,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4790,14 +4785,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 33766-2024</t>
+          <t>A 49688-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45520</v>
+        <v>45939</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4810,7 +4805,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.5</v>
+        <v>16.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4847,14 +4842,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 49688-2025</t>
+          <t>A 5339-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45939</v>
+        <v>45331</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4867,7 +4862,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>16.1</v>
+        <v>1.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4904,14 +4899,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 1070-2022</t>
+          <t>A 5407-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44571</v>
+        <v>45331.60685185185</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4924,7 +4919,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -4961,14 +4956,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 28478-2023</t>
+          <t>A 9316-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45103</v>
+        <v>45358</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4981,7 +4976,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5018,14 +5013,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 12848-2022</t>
+          <t>A 10403-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44642</v>
+        <v>44623</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5038,7 +5033,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5075,14 +5070,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 28080-2023</t>
+          <t>A 8837-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45099</v>
+        <v>45356</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5095,7 +5090,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5132,14 +5127,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 52089-2023</t>
+          <t>A 2832-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45216</v>
+        <v>44945</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5152,7 +5147,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.8</v>
+        <v>1.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5189,14 +5184,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 62334-2023</t>
+          <t>A 20164-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45266</v>
+        <v>45053</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5209,7 +5204,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>6.2</v>
+        <v>1.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5246,14 +5241,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 26493-2023</t>
+          <t>A 61767-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45092</v>
+        <v>44917.50982638889</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5265,8 +5260,13 @@
           <t>SÖLVESBORG</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5303,14 +5303,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 22561-2023</t>
+          <t>A 8523-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45069</v>
+        <v>45709</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.5</v>
+        <v>6.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5360,14 +5360,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 8130-2025</t>
+          <t>A 60469-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45707</v>
+        <v>45258</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.2</v>
+        <v>8.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5417,14 +5417,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 26478-2023</t>
+          <t>A 44752-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45092</v>
+        <v>45184</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5474,14 +5474,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 34727-2021</t>
+          <t>A 20316-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44382</v>
+        <v>45775.32983796296</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5531,14 +5531,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 60469-2023</t>
+          <t>A 51284-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45258</v>
+        <v>45219</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>8.4</v>
+        <v>1.4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5588,14 +5588,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 9602-2023</t>
+          <t>A 2089-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44983.78570601852</v>
+        <v>45309</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5645,14 +5645,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 16297-2022</t>
+          <t>A 34394-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44670.55493055555</v>
+        <v>45525</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.3</v>
+        <v>0.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5702,14 +5702,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 33742-2024</t>
+          <t>A 21464-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45520</v>
+        <v>45782.57175925926</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.4</v>
+        <v>5.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5759,14 +5759,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 21464-2025</t>
+          <t>A 14475-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45782.57175925926</v>
+        <v>45741</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5816,14 +5816,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 14475-2025</t>
+          <t>A 14481-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
         <v>45741</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5873,14 +5873,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 14481-2025</t>
+          <t>A 445-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45741</v>
+        <v>45296</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -5930,14 +5930,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 445-2024</t>
+          <t>A 10997-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45296</v>
+        <v>45370.56016203704</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -5987,14 +5987,14 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 10997-2024</t>
+          <t>A 27402-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45370.56016203704</v>
+        <v>45812.71793981481</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>3.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>

--- a/Översikt SÖLVESBORG.xlsx
+++ b/Översikt SÖLVESBORG.xlsx
@@ -568,14 +568,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 21769-2023</t>
+          <t>A 48309-2024</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45065</v>
+        <v>45590</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -588,10 +588,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -606,135 +606,135 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
+          <t>Revlummer</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1083/artfynd/A 48309-2024 artfynd.xlsx", "A 48309-2024")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1083/kartor/A 48309-2024 karta.png", "A 48309-2024")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1083/klagomål/A 48309-2024 FSC-klagomål.docx", "A 48309-2024")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1083/klagomålsmail/A 48309-2024 FSC-klagomål mail.docx", "A 48309-2024")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1083/tillsyn/A 48309-2024 tillsynsbegäran.docx", "A 48309-2024")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1083/tillsynsmail/A 48309-2024 tillsynsbegäran mail.docx", "A 48309-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A 21769-2023</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>45065</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>BLEKINGE LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>SÖLVESBORG</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
+        <is>
           <t>Skogsalm</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1083/artfynd/A 21769-2023 artfynd.xlsx", "A 21769-2023")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1083/kartor/A 21769-2023 karta.png", "A 21769-2023")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1083/klagomål/A 21769-2023 FSC-klagomål.docx", "A 21769-2023")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1083/klagomålsmail/A 21769-2023 FSC-klagomål mail.docx", "A 21769-2023")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1083/tillsyn/A 21769-2023 tillsynsbegäran.docx", "A 21769-2023")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1083/tillsynsmail/A 21769-2023 tillsynsbegäran mail.docx", "A 21769-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>A 48309-2024</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>45590</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>BLEKINGE LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>SÖLVESBORG</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" s="2" t="inlineStr">
-        <is>
-          <t>Revlummer</t>
-        </is>
-      </c>
-      <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1083/artfynd/A 48309-2024 artfynd.xlsx", "A 48309-2024")</f>
-        <v/>
-      </c>
-      <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1083/kartor/A 48309-2024 karta.png", "A 48309-2024")</f>
-        <v/>
-      </c>
-      <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1083/klagomål/A 48309-2024 FSC-klagomål.docx", "A 48309-2024")</f>
-        <v/>
-      </c>
-      <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1083/klagomålsmail/A 48309-2024 FSC-klagomål mail.docx", "A 48309-2024")</f>
-        <v/>
-      </c>
-      <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1083/tillsyn/A 48309-2024 tillsynsbegäran.docx", "A 48309-2024")</f>
-        <v/>
-      </c>
-      <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1083/tillsynsmail/A 48309-2024 tillsynsbegäran mail.docx", "A 48309-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>44253</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>44509</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>44356</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44355</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>44488</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44365</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>44616</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>44355</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44355</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>44641</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44622</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1365,14 +1365,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 22561-2023</t>
+          <t>A 40054-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45069</v>
+        <v>45894</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1422,14 +1422,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 20320-2025</t>
+          <t>A 19827-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45775.33391203704</v>
+        <v>45433.35063657408</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.2</v>
+        <v>0.5</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1479,14 +1479,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 52084-2023</t>
+          <t>A 34727-2021</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45216</v>
+        <v>44382</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1536,14 +1536,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 22906-2024</t>
+          <t>A 41565-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45448</v>
+        <v>45901.60275462963</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1593,14 +1593,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 12298-2022</t>
+          <t>A 24313-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44641</v>
+        <v>45797.52783564815</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1650,14 +1650,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 10390-2024</t>
+          <t>A 60469-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45365</v>
+        <v>45258</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.4</v>
+        <v>8.4</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1707,14 +1707,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 17612-2024</t>
+          <t>A 9602-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45416.45724537037</v>
+        <v>44983.78570601852</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1764,14 +1764,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 38317-2025</t>
+          <t>A 16297-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45883.48207175926</v>
+        <v>44670.55493055555</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1821,14 +1821,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 38406-2025</t>
+          <t>A 33742-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45883.59122685185</v>
+        <v>45520</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1878,14 +1878,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 16188-2022</t>
+          <t>A 10403-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44669</v>
+        <v>44623</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.7</v>
+        <v>1.8</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1935,14 +1935,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 12848-2022</t>
+          <t>A 21464-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44642</v>
+        <v>45782.57175925926</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1992,14 +1992,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 24313-2025</t>
+          <t>A 14475-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45797.52783564815</v>
+        <v>45741</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2049,14 +2049,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 14136-2025</t>
+          <t>A 14481-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45738</v>
+        <v>45741</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2106,14 +2106,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 16297-2022</t>
+          <t>A 31261-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44670.55493055555</v>
+        <v>44368</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2163,14 +2163,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 32517-2025</t>
+          <t>A 445-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45838.47891203704</v>
+        <v>45296</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2220,14 +2220,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 32514-2025</t>
+          <t>A 32436-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45838.475625</v>
+        <v>45838</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.5</v>
+        <v>6.3</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2277,14 +2277,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 32525-2025</t>
+          <t>A 46500-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45838.48854166667</v>
+        <v>45197</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2334,14 +2334,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 40054-2025</t>
+          <t>A 44493-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45894</v>
+        <v>45916</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2391,14 +2391,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 32974-2025</t>
+          <t>A 44495-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45839.7596875</v>
+        <v>45916</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.9</v>
+        <v>5.2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2455,7 +2455,7 @@
         <v>45275.39289351852</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2505,14 +2505,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 33817-2025</t>
+          <t>A 10997-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45842.46084490741</v>
+        <v>45370.56016203704</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2562,14 +2562,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 26478-2023</t>
+          <t>A 17612-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45092</v>
+        <v>45416.45724537037</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4.8</v>
+        <v>1.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2619,14 +2619,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 28080-2023</t>
+          <t>A 7134-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45099</v>
+        <v>44970.43828703704</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2676,14 +2676,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 41565-2025</t>
+          <t>A 14136-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45901.60275462963</v>
+        <v>45738</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.9</v>
+        <v>0.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2733,14 +2733,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 62334-2023</t>
+          <t>A 44871-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45266</v>
+        <v>45190</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>6.2</v>
+        <v>3.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2790,14 +2790,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 28228-2021</t>
+          <t>A 52086-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44355</v>
+        <v>45216</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.1</v>
+        <v>8.1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2847,14 +2847,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 32436-2025</t>
+          <t>A 22906-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45838</v>
+        <v>45448</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>6.3</v>
+        <v>2.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2904,14 +2904,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 44495-2025</t>
+          <t>A 27402-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45916</v>
+        <v>45812.71793981481</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>5.2</v>
+        <v>3.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2961,14 +2961,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 44493-2025</t>
+          <t>A 20164-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45916</v>
+        <v>45053</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3018,14 +3018,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 31261-2021</t>
+          <t>A 44752-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44368</v>
+        <v>45184</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.1</v>
+        <v>4.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3075,14 +3075,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 34727-2021</t>
+          <t>A 20316-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44382</v>
+        <v>45775.32983796296</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3132,14 +3132,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 46500-2023</t>
+          <t>A 28228-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45197</v>
+        <v>44355</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3189,14 +3189,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 33766-2024</t>
+          <t>A 52084-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45520</v>
+        <v>45216</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3246,14 +3246,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 39130-2024</t>
+          <t>A 32517-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45548</v>
+        <v>45838.47891203704</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3303,14 +3303,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 26493-2023</t>
+          <t>A 32525-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45092</v>
+        <v>45838.48854166667</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3360,14 +3360,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 7134-2023</t>
+          <t>A 32514-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44970.43828703704</v>
+        <v>45838.475625</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3417,14 +3417,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 51772-2025</t>
+          <t>A 2327-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45951</v>
+        <v>45673.63548611111</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3474,14 +3474,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 52086-2023</t>
+          <t>A 32974-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45216</v>
+        <v>45839.7596875</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>8.1</v>
+        <v>1.9</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3531,14 +3531,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 19827-2024</t>
+          <t>A 2325-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45433.35063657408</v>
+        <v>45673.63410879629</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3588,14 +3588,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 53293-2025</t>
+          <t>A 33817-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45958</v>
+        <v>45842.46084490741</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3645,14 +3645,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 52893-2025</t>
+          <t>A 34394-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45957</v>
+        <v>45525</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3702,14 +3702,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 28478-2023</t>
+          <t>A 12298-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45103</v>
+        <v>44641</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3759,14 +3759,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 1070-2022</t>
+          <t>A 5407-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44571</v>
+        <v>45331.60685185185</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3816,14 +3816,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 33742-2024</t>
+          <t>A 47242-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45520</v>
+        <v>45197</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.4</v>
+        <v>11.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3873,14 +3873,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 56570-2025</t>
+          <t>A 30992-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45974</v>
+        <v>44768.536875</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4.4</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3930,14 +3930,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 9602-2023</t>
+          <t>A 10390-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44983.78570601852</v>
+        <v>45365</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>45673.393125</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>45673.43063657408</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4101,14 +4101,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 20127-2025</t>
+          <t>A 38317-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45772</v>
+        <v>45883.48207175926</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4158,14 +4158,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 20093-2025</t>
+          <t>A 38406-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45772</v>
+        <v>45883.59122685185</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4215,14 +4215,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 20155-2025</t>
+          <t>A 20320-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45772</v>
+        <v>45775.33391203704</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.4</v>
+        <v>4.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4272,14 +4272,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 44871-2023</t>
+          <t>A 51772-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45190</v>
+        <v>45951</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4329,14 +4329,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 47242-2023</t>
+          <t>A 52893-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45197</v>
+        <v>45957</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>11.6</v>
+        <v>0.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4386,14 +4386,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 8130-2025</t>
+          <t>A 53293-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45707</v>
+        <v>45958</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4443,14 +4443,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 48751-2025</t>
+          <t>A 8523-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45936</v>
+        <v>45709</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.6</v>
+        <v>6.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4500,14 +4500,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 30992-2022</t>
+          <t>A 61767-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44768.536875</v>
+        <v>44917.50982638889</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4519,8 +4519,13 @@
           <t>SÖLVESBORG</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4557,14 +4562,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 66447-2021</t>
+          <t>A 56570-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44518.82853009259</v>
+        <v>45974</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4577,7 +4582,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.6</v>
+        <v>4.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4614,14 +4619,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 52089-2023</t>
+          <t>A 16188-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45216</v>
+        <v>44669</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4634,7 +4639,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4671,14 +4676,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 2327-2025</t>
+          <t>A 2089-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45673.63548611111</v>
+        <v>45309</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4691,7 +4696,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>3.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4728,14 +4733,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 2325-2025</t>
+          <t>A 8837-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45673.63410879629</v>
+        <v>45356</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4748,7 +4753,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4785,14 +4790,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 49688-2025</t>
+          <t>A 20093-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45939</v>
+        <v>45772</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4805,7 +4810,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>16.1</v>
+        <v>2.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4842,14 +4847,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 5339-2024</t>
+          <t>A 20155-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45331</v>
+        <v>45772</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4862,7 +4867,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4899,14 +4904,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 5407-2024</t>
+          <t>A 20127-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45331.60685185185</v>
+        <v>45772</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4919,7 +4924,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -4956,14 +4961,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 9316-2024</t>
+          <t>A 2832-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45358</v>
+        <v>44945</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4976,7 +4981,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5013,14 +5018,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 10403-2022</t>
+          <t>A 51284-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44623</v>
+        <v>45219</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5033,7 +5038,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5070,14 +5075,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 8837-2024</t>
+          <t>A 48751-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45356</v>
+        <v>45936</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5090,7 +5095,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5127,14 +5132,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 2832-2023</t>
+          <t>A 5339-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44945</v>
+        <v>45331</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5147,7 +5152,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5184,14 +5189,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 20164-2023</t>
+          <t>A 9316-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45053</v>
+        <v>45358</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5204,7 +5209,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5241,14 +5246,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 61767-2022</t>
+          <t>A 39130-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44917.50982638889</v>
+        <v>45548</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5260,13 +5265,8 @@
           <t>SÖLVESBORG</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5303,14 +5303,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 8523-2025</t>
+          <t>A 66447-2021</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45709</v>
+        <v>44518.82853009259</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>6.7</v>
+        <v>2.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5360,14 +5360,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 60469-2023</t>
+          <t>A 33766-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45258</v>
+        <v>45520</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>8.4</v>
+        <v>1.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5417,14 +5417,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 44752-2023</t>
+          <t>A 49688-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45184</v>
+        <v>45939</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>4.6</v>
+        <v>16.1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5474,14 +5474,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 20316-2025</t>
+          <t>A 1070-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45775.32983796296</v>
+        <v>44571</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5531,14 +5531,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 51284-2023</t>
+          <t>A 28478-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45219</v>
+        <v>45103</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5588,14 +5588,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 2089-2024</t>
+          <t>A 12848-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45309</v>
+        <v>44642</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5645,14 +5645,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 34394-2024</t>
+          <t>A 28080-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45525</v>
+        <v>45099</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.1</v>
+        <v>1.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5702,14 +5702,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 21464-2025</t>
+          <t>A 52089-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45782.57175925926</v>
+        <v>45216</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5759,14 +5759,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 14475-2025</t>
+          <t>A 62334-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45741</v>
+        <v>45266</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3.3</v>
+        <v>6.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5816,14 +5816,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 14481-2025</t>
+          <t>A 26493-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45741</v>
+        <v>45092</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5873,14 +5873,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 445-2024</t>
+          <t>A 22561-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45296</v>
+        <v>45069</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -5930,14 +5930,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 10997-2024</t>
+          <t>A 8130-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45370.56016203704</v>
+        <v>45707</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -5987,14 +5987,14 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 27402-2025</t>
+          <t>A 26478-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45812.71793981481</v>
+        <v>45092</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.7</v>
+        <v>4.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>

--- a/Översikt SÖLVESBORG.xlsx
+++ b/Översikt SÖLVESBORG.xlsx
@@ -575,7 +575,7 @@
         <v>45590</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>45065</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>44253</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>44509</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>44356</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44355</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>44488</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44365</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>44616</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1137,14 +1137,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 28198-2021</t>
+          <t>A 12683-2022</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44355</v>
+        <v>44641</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1194,14 +1194,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 28216-2021</t>
+          <t>A 28198-2021</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
         <v>44355</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1251,14 +1251,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 12683-2022</t>
+          <t>A 28216-2021</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44641</v>
+        <v>44355</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1308,14 +1308,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 10274-2022</t>
+          <t>A 39130-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44622</v>
+        <v>45548</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0.4</v>
+        <v>2.3</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1365,14 +1365,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 40054-2025</t>
+          <t>A 10274-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45894</v>
+        <v>44622</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.3</v>
+        <v>0.4</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1422,14 +1422,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 19827-2024</t>
+          <t>A 26493-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45433.35063657408</v>
+        <v>45092</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.5</v>
+        <v>3.2</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1479,14 +1479,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 34727-2021</t>
+          <t>A 7134-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44382</v>
+        <v>44970.43828703704</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1536,14 +1536,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 41565-2025</t>
+          <t>A 22561-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45901.60275462963</v>
+        <v>45069</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.9</v>
+        <v>1.5</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1593,14 +1593,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 24313-2025</t>
+          <t>A 52086-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45797.52783564815</v>
+        <v>45216</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.7</v>
+        <v>8.1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1650,14 +1650,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 60469-2023</t>
+          <t>A 19827-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45258</v>
+        <v>45433.35063657408</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>8.4</v>
+        <v>0.5</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1707,14 +1707,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 9602-2023</t>
+          <t>A 20320-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44983.78570601852</v>
+        <v>45775.33391203704</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1764,14 +1764,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 16297-2022</t>
+          <t>A 28478-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44670.55493055555</v>
+        <v>45103</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1821,14 +1821,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 33742-2024</t>
+          <t>A 12298-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45520</v>
+        <v>44641</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.4</v>
+        <v>2.4</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1878,14 +1878,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 10403-2022</t>
+          <t>A 22906-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44623</v>
+        <v>45448</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1935,14 +1935,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 21464-2025</t>
+          <t>A 1070-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45782.57175925926</v>
+        <v>44571</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1992,14 +1992,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 14475-2025</t>
+          <t>A 10390-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45741</v>
+        <v>45365</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2049,14 +2049,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 14481-2025</t>
+          <t>A 52084-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45741</v>
+        <v>45216</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2106,14 +2106,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 31261-2021</t>
+          <t>A 33742-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44368</v>
+        <v>45520</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.1</v>
+        <v>0.4</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2163,14 +2163,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 445-2024</t>
+          <t>A 17612-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45296</v>
+        <v>45416.45724537037</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2220,14 +2220,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 32436-2025</t>
+          <t>A 9602-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45838</v>
+        <v>44983.78570601852</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>6.3</v>
+        <v>2.8</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2277,14 +2277,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 46500-2023</t>
+          <t>A 16188-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45197</v>
+        <v>44669</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.5</v>
+        <v>3.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2334,14 +2334,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 44493-2025</t>
+          <t>A 12848-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45916</v>
+        <v>44642</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2391,14 +2391,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 44495-2025</t>
+          <t>A 27402-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45916</v>
+        <v>45812.71793981481</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>5.2</v>
+        <v>3.7</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2448,14 +2448,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 63571-2023</t>
+          <t>A 14136-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45275.39289351852</v>
+        <v>45738</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2505,14 +2505,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 10997-2024</t>
+          <t>A 16297-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45370.56016203704</v>
+        <v>44670.55493055555</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2562,14 +2562,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 17612-2024</t>
+          <t>A 63571-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45416.45724537037</v>
+        <v>45275.39289351852</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2619,14 +2619,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 7134-2023</t>
+          <t>A 26478-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44970.43828703704</v>
+        <v>45092</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.5</v>
+        <v>4.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2676,14 +2676,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 14136-2025</t>
+          <t>A 28080-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45738</v>
+        <v>45099</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2733,14 +2733,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 44871-2023</t>
+          <t>A 2200-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45190</v>
+        <v>45673.393125</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2790,14 +2790,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 52086-2023</t>
+          <t>A 2210-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45216</v>
+        <v>45673.43063657408</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>8.1</v>
+        <v>1.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2847,14 +2847,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 22906-2024</t>
+          <t>A 5407-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45448</v>
+        <v>45331.60685185185</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2904,14 +2904,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 27402-2025</t>
+          <t>A 9316-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45812.71793981481</v>
+        <v>45358</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2961,14 +2961,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 20164-2023</t>
+          <t>A 44871-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45053</v>
+        <v>45190</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3018,14 +3018,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 44752-2023</t>
+          <t>A 47242-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45184</v>
+        <v>45197</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>4.6</v>
+        <v>11.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3075,14 +3075,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 20316-2025</t>
+          <t>A 10403-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45775.32983796296</v>
+        <v>44623</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3132,14 +3132,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 28228-2021</t>
+          <t>A 32517-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44355</v>
+        <v>45838.47891203704</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3189,14 +3189,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 52084-2023</t>
+          <t>A 8837-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45216</v>
+        <v>45356</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3246,14 +3246,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 32517-2025</t>
+          <t>A 32514-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45838.47891203704</v>
+        <v>45838.475625</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3310,7 +3310,7 @@
         <v>45838.48854166667</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3360,14 +3360,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 32514-2025</t>
+          <t>A 2832-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45838.475625</v>
+        <v>44945</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3417,14 +3417,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 2327-2025</t>
+          <t>A 32974-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45673.63548611111</v>
+        <v>45839.7596875</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3474,14 +3474,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 32974-2025</t>
+          <t>A 20164-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45839.7596875</v>
+        <v>45053</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3531,14 +3531,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 2325-2025</t>
+          <t>A 33817-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45673.63410879629</v>
+        <v>45842.46084490741</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3588,14 +3588,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 33817-2025</t>
+          <t>A 8130-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45842.46084490741</v>
+        <v>45707</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3645,14 +3645,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 34394-2024</t>
+          <t>A 62334-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45525</v>
+        <v>45266</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.1</v>
+        <v>6.2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3702,14 +3702,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 12298-2022</t>
+          <t>A 61767-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44641</v>
+        <v>44917.50982638889</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3721,8 +3721,13 @@
           <t>SÖLVESBORG</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3759,14 +3764,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 5407-2024</t>
+          <t>A 28228-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45331.60685185185</v>
+        <v>44355</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3779,7 +3784,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3816,14 +3821,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 47242-2023</t>
+          <t>A 31261-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45197</v>
+        <v>44368</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3836,7 +3841,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>11.6</v>
+        <v>3.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3880,7 +3885,7 @@
         <v>44768.536875</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3930,14 +3935,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 10390-2024</t>
+          <t>A 34727-2021</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45365</v>
+        <v>44382</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3950,7 +3955,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -3987,14 +3992,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 2200-2025</t>
+          <t>A 66447-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45673.393125</v>
+        <v>44518.82853009259</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4007,7 +4012,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4044,14 +4049,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 2210-2025</t>
+          <t>A 46500-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45673.43063657408</v>
+        <v>45197</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4064,7 +4069,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4101,14 +4106,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 38317-2025</t>
+          <t>A 52089-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45883.48207175926</v>
+        <v>45216</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4121,7 +4126,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4158,14 +4163,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 38406-2025</t>
+          <t>A 33766-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45883.59122685185</v>
+        <v>45520</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4178,7 +4183,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4215,14 +4220,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 20320-2025</t>
+          <t>A 2327-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45775.33391203704</v>
+        <v>45673.63548611111</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4235,7 +4240,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4.2</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4272,14 +4277,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 51772-2025</t>
+          <t>A 2325-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45951</v>
+        <v>45673.63410879629</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4292,7 +4297,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4329,14 +4334,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 52893-2025</t>
+          <t>A 38317-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45957</v>
+        <v>45883.48207175926</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4349,7 +4354,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4386,14 +4391,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 53293-2025</t>
+          <t>A 38406-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45958</v>
+        <v>45883.59122685185</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4406,7 +4411,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4450,7 +4455,7 @@
         <v>45709</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4500,14 +4505,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 61767-2022</t>
+          <t>A 5339-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44917.50982638889</v>
+        <v>45331</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4519,13 +4524,8 @@
           <t>SÖLVESBORG</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4562,14 +4562,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 56570-2025</t>
+          <t>A 24313-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45974</v>
+        <v>45797.52783564815</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4619,14 +4619,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 16188-2022</t>
+          <t>A 60469-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44669</v>
+        <v>45258</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.7</v>
+        <v>8.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4676,14 +4676,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 2089-2024</t>
+          <t>A 40054-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45309</v>
+        <v>45894</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.7</v>
+        <v>2.3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4733,14 +4733,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 8837-2024</t>
+          <t>A 44752-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45356</v>
+        <v>45184</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.7</v>
+        <v>4.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4790,14 +4790,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 20093-2025</t>
+          <t>A 20316-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45772</v>
+        <v>45775.32983796296</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4847,14 +4847,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 20155-2025</t>
+          <t>A 51284-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45772</v>
+        <v>45219</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4904,14 +4904,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 20127-2025</t>
+          <t>A 41565-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45772</v>
+        <v>45901.60275462963</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.1</v>
+        <v>3.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -4961,14 +4961,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 2832-2023</t>
+          <t>A 2089-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44945</v>
+        <v>45309</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.1</v>
+        <v>3.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5018,14 +5018,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 51284-2023</t>
+          <t>A 32436-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45219</v>
+        <v>45838</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.4</v>
+        <v>6.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5075,14 +5075,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 48751-2025</t>
+          <t>A 44495-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45936</v>
+        <v>45916</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.6</v>
+        <v>5.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5132,14 +5132,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 5339-2024</t>
+          <t>A 44493-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45331</v>
+        <v>45916</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.9</v>
+        <v>3.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5189,14 +5189,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 9316-2024</t>
+          <t>A 34394-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45358</v>
+        <v>45525</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4</v>
+        <v>0.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5246,14 +5246,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 39130-2024</t>
+          <t>A 21464-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45548</v>
+        <v>45782.57175925926</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5303,14 +5303,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 66447-2021</t>
+          <t>A 14475-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44518.82853009259</v>
+        <v>45741</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5360,14 +5360,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 33766-2024</t>
+          <t>A 14481-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45520</v>
+        <v>45741</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5417,14 +5417,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 49688-2025</t>
+          <t>A 445-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45939</v>
+        <v>45296</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>16.1</v>
+        <v>1.4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5474,14 +5474,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 1070-2022</t>
+          <t>A 51772-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44571</v>
+        <v>45951</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5531,14 +5531,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 28478-2023</t>
+          <t>A 53293-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45103</v>
+        <v>45958</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5588,14 +5588,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 12848-2022</t>
+          <t>A 52893-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44642</v>
+        <v>45957</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5645,14 +5645,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 28080-2023</t>
+          <t>A 10997-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45099</v>
+        <v>45370.56016203704</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5702,14 +5702,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 52089-2023</t>
+          <t>A 56570-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45216</v>
+        <v>45974</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5759,14 +5759,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 62334-2023</t>
+          <t>A 20127-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45266</v>
+        <v>45772</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>6.2</v>
+        <v>2.1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5816,14 +5816,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 26493-2023</t>
+          <t>A 20093-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45092</v>
+        <v>45772</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5873,14 +5873,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 22561-2023</t>
+          <t>A 20155-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45069</v>
+        <v>45772</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -5930,14 +5930,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 8130-2025</t>
+          <t>A 48751-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45707</v>
+        <v>45936</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.2</v>
+        <v>2.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -5987,14 +5987,14 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 26478-2023</t>
+          <t>A 49688-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45092</v>
+        <v>45939</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>4.8</v>
+        <v>16.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>

--- a/Översikt SÖLVESBORG.xlsx
+++ b/Översikt SÖLVESBORG.xlsx
@@ -568,14 +568,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 48309-2024</t>
+          <t>A 21769-2023</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45590</v>
+        <v>45065</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -588,153 +588,153 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>1</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
+          <t>Skogsalm</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1083/artfynd/A 21769-2023 artfynd.xlsx", "A 21769-2023")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1083/kartor/A 21769-2023 karta.png", "A 21769-2023")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1083/klagomål/A 21769-2023 FSC-klagomål.docx", "A 21769-2023")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1083/klagomålsmail/A 21769-2023 FSC-klagomål mail.docx", "A 21769-2023")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1083/tillsyn/A 21769-2023 tillsynsbegäran.docx", "A 21769-2023")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1083/tillsynsmail/A 21769-2023 tillsynsbegäran mail.docx", "A 21769-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A 48309-2024</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>45590</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>BLEKINGE LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>SÖLVESBORG</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
+        <is>
           <t>Revlummer</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1083/artfynd/A 48309-2024 artfynd.xlsx", "A 48309-2024")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1083/kartor/A 48309-2024 karta.png", "A 48309-2024")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1083/klagomål/A 48309-2024 FSC-klagomål.docx", "A 48309-2024")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1083/klagomålsmail/A 48309-2024 FSC-klagomål mail.docx", "A 48309-2024")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1083/tillsyn/A 48309-2024 tillsynsbegäran.docx", "A 48309-2024")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1083/tillsynsmail/A 48309-2024 tillsynsbegäran mail.docx", "A 48309-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>A 21769-2023</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>45065</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>BLEKINGE LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>SÖLVESBORG</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" s="2" t="inlineStr">
-        <is>
-          <t>Skogsalm</t>
-        </is>
-      </c>
-      <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1083/artfynd/A 21769-2023 artfynd.xlsx", "A 21769-2023")</f>
-        <v/>
-      </c>
-      <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1083/kartor/A 21769-2023 karta.png", "A 21769-2023")</f>
-        <v/>
-      </c>
-      <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1083/klagomål/A 21769-2023 FSC-klagomål.docx", "A 21769-2023")</f>
-        <v/>
-      </c>
-      <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1083/klagomålsmail/A 21769-2023 FSC-klagomål mail.docx", "A 21769-2023")</f>
-        <v/>
-      </c>
-      <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1083/tillsyn/A 21769-2023 tillsynsbegäran.docx", "A 21769-2023")</f>
-        <v/>
-      </c>
-      <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1083/tillsynsmail/A 21769-2023 tillsynsbegäran mail.docx", "A 21769-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>44253</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>44509</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>44356</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44355</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>44488</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44365</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>44616</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1137,14 +1137,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 12683-2022</t>
+          <t>A 28198-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44641</v>
+        <v>44355</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1194,14 +1194,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 28198-2021</t>
+          <t>A 28216-2021</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
         <v>44355</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1251,14 +1251,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 28216-2021</t>
+          <t>A 12683-2022</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44355</v>
+        <v>44641</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1308,14 +1308,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 39130-2024</t>
+          <t>A 10274-2022</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45548</v>
+        <v>44622</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.3</v>
+        <v>0.4</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1365,14 +1365,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 10274-2022</t>
+          <t>A 19827-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44622</v>
+        <v>45433.35063657408</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1422,14 +1422,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 26493-2023</t>
+          <t>A 10403-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45092</v>
+        <v>44623</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1479,14 +1479,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 7134-2023</t>
+          <t>A 31261-2021</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44970.43828703704</v>
+        <v>44368</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1536,14 +1536,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 22561-2023</t>
+          <t>A 10997-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45069</v>
+        <v>45370.56016203704</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1593,14 +1593,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 52086-2023</t>
+          <t>A 46500-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45216</v>
+        <v>45197</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>8.1</v>
+        <v>0.5</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1650,14 +1650,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 19827-2024</t>
+          <t>A 49688-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45433.35063657408</v>
+        <v>45939</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.5</v>
+        <v>16.1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1707,14 +1707,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 20320-2025</t>
+          <t>A 63571-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45775.33391203704</v>
+        <v>45275.39289351852</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1764,14 +1764,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 28478-2023</t>
+          <t>A 27402-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45103</v>
+        <v>45812.71793981481</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1821,14 +1821,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 12298-2022</t>
+          <t>A 17612-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44641</v>
+        <v>45416.45724537037</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1878,14 +1878,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 22906-2024</t>
+          <t>A 7134-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45448</v>
+        <v>44970.43828703704</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1935,14 +1935,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 1070-2022</t>
+          <t>A 24313-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44571</v>
+        <v>45797.52783564815</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.5</v>
+        <v>3.7</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1992,14 +1992,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 10390-2024</t>
+          <t>A 14136-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45365</v>
+        <v>45738</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2049,14 +2049,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 52084-2023</t>
+          <t>A 44871-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45216</v>
+        <v>45190</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2106,14 +2106,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 33742-2024</t>
+          <t>A 52086-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45520</v>
+        <v>45216</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.4</v>
+        <v>8.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2163,14 +2163,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 17612-2024</t>
+          <t>A 22906-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45416.45724537037</v>
+        <v>45448</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2220,14 +2220,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 9602-2023</t>
+          <t>A 40054-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44983.78570601852</v>
+        <v>45894</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2277,14 +2277,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 16188-2022</t>
+          <t>A 20164-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44669</v>
+        <v>45053</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.7</v>
+        <v>1.8</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2334,14 +2334,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 12848-2022</t>
+          <t>A 44752-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44642</v>
+        <v>45184</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.1</v>
+        <v>4.6</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2391,14 +2391,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 27402-2025</t>
+          <t>A 32517-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45812.71793981481</v>
+        <v>45838.47891203704</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.7</v>
+        <v>1.6</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2448,14 +2448,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 14136-2025</t>
+          <t>A 32525-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45738</v>
+        <v>45838.48854166667</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2505,14 +2505,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 16297-2022</t>
+          <t>A 32514-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44670.55493055555</v>
+        <v>45838.475625</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2562,14 +2562,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 63571-2023</t>
+          <t>A 20316-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45275.39289351852</v>
+        <v>45775.32983796296</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2619,14 +2619,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 26478-2023</t>
+          <t>A 41565-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45092</v>
+        <v>45901.60275462963</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2676,14 +2676,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 28080-2023</t>
+          <t>A 32974-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45099</v>
+        <v>45839.7596875</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2733,14 +2733,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 2200-2025</t>
+          <t>A 28228-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45673.393125</v>
+        <v>44355</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2790,14 +2790,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 2210-2025</t>
+          <t>A 33817-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45673.43063657408</v>
+        <v>45842.46084490741</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2847,14 +2847,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 5407-2024</t>
+          <t>A 52084-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45331.60685185185</v>
+        <v>45216</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2904,14 +2904,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 9316-2024</t>
+          <t>A 2327-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45358</v>
+        <v>45673.63548611111</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2961,14 +2961,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 44871-2023</t>
+          <t>A 2325-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45190</v>
+        <v>45673.63410879629</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3018,14 +3018,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 47242-2023</t>
+          <t>A 34394-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45197</v>
+        <v>45525</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>11.6</v>
+        <v>0.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3075,14 +3075,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 10403-2022</t>
+          <t>A 12298-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44623</v>
+        <v>44641</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3132,14 +3132,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 32517-2025</t>
+          <t>A 38317-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45838.47891203704</v>
+        <v>45883.48207175926</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3189,14 +3189,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 8837-2024</t>
+          <t>A 5407-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45356</v>
+        <v>45331.60685185185</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3246,14 +3246,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 32514-2025</t>
+          <t>A 38406-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45838.475625</v>
+        <v>45883.59122685185</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3303,14 +3303,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 32525-2025</t>
+          <t>A 32436-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45838.48854166667</v>
+        <v>45838</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.5</v>
+        <v>6.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3360,14 +3360,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 2832-2023</t>
+          <t>A 47242-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44945</v>
+        <v>45197</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.1</v>
+        <v>11.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3417,14 +3417,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 32974-2025</t>
+          <t>A 30992-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45839.7596875</v>
+        <v>44768.536875</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3474,14 +3474,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 20164-2023</t>
+          <t>A 44493-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45053</v>
+        <v>45916</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3531,14 +3531,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 33817-2025</t>
+          <t>A 44495-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45842.46084490741</v>
+        <v>45916</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.7</v>
+        <v>5.2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3588,14 +3588,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 8130-2025</t>
+          <t>A 10390-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45707</v>
+        <v>45365</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3645,14 +3645,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 62334-2023</t>
+          <t>A 2200-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45266</v>
+        <v>45673.393125</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>6.2</v>
+        <v>0.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3702,14 +3702,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 61767-2022</t>
+          <t>A 2210-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44917.50982638889</v>
+        <v>45673.43063657408</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3721,13 +3721,8 @@
           <t>SÖLVESBORG</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3764,14 +3759,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 28228-2021</t>
+          <t>A 20320-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44355</v>
+        <v>45775.33391203704</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3784,7 +3779,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3821,14 +3816,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 31261-2021</t>
+          <t>A 8523-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44368</v>
+        <v>45709</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3841,7 +3836,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3.1</v>
+        <v>6.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3878,14 +3873,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 30992-2022</t>
+          <t>A 61767-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44768.536875</v>
+        <v>44917.50982638889</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3897,8 +3892,13 @@
           <t>SÖLVESBORG</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3935,14 +3935,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 34727-2021</t>
+          <t>A 51772-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44382</v>
+        <v>45951</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -3992,14 +3992,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 66447-2021</t>
+          <t>A 16188-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44518.82853009259</v>
+        <v>44669</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4012,7 +4012,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.6</v>
+        <v>3.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4049,14 +4049,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 46500-2023</t>
+          <t>A 2089-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45197</v>
+        <v>45309</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.5</v>
+        <v>3.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4106,14 +4106,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 52089-2023</t>
+          <t>A 52893-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45216</v>
+        <v>45957</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4126,7 +4126,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4163,14 +4163,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 33766-2024</t>
+          <t>A 8837-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45520</v>
+        <v>45356</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4220,14 +4220,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 2327-2025</t>
+          <t>A 53293-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45673.63548611111</v>
+        <v>45958</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4277,14 +4277,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 2325-2025</t>
+          <t>A 2832-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45673.63410879629</v>
+        <v>44945</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4334,14 +4334,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 38317-2025</t>
+          <t>A 56570-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45883.48207175926</v>
+        <v>45974</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>4.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4391,14 +4391,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 38406-2025</t>
+          <t>A 51284-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45883.59122685185</v>
+        <v>45219</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4448,14 +4448,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 8523-2025</t>
+          <t>A 5339-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45709</v>
+        <v>45331</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>6.7</v>
+        <v>1.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4505,14 +4505,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 5339-2024</t>
+          <t>A 9316-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45331</v>
+        <v>45358</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4525,7 +4525,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.9</v>
+        <v>4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4562,14 +4562,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 24313-2025</t>
+          <t>A 39130-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45797.52783564815</v>
+        <v>45548</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.7</v>
+        <v>2.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4619,14 +4619,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 60469-2023</t>
+          <t>A 66447-2021</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45258</v>
+        <v>44518.82853009259</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>8.4</v>
+        <v>2.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4676,14 +4676,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 40054-2025</t>
+          <t>A 20093-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45894</v>
+        <v>45772</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4733,14 +4733,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 44752-2023</t>
+          <t>A 33766-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45184</v>
+        <v>45520</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>4.6</v>
+        <v>1.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4790,14 +4790,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 20316-2025</t>
+          <t>A 20155-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45775.32983796296</v>
+        <v>45772</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4847,14 +4847,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 51284-2023</t>
+          <t>A 20127-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45219</v>
+        <v>45772</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4904,14 +4904,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 41565-2025</t>
+          <t>A 48751-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45901.60275462963</v>
+        <v>45936</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.9</v>
+        <v>2.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -4961,14 +4961,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 2089-2024</t>
+          <t>A 1070-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45309</v>
+        <v>44571</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5018,14 +5018,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 32436-2025</t>
+          <t>A 28478-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45838</v>
+        <v>45103</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>6.3</v>
+        <v>3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5075,14 +5075,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 44495-2025</t>
+          <t>A 12848-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45916</v>
+        <v>44642</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>5.2</v>
+        <v>3.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5132,14 +5132,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 44493-2025</t>
+          <t>A 28080-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45916</v>
+        <v>45099</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5189,14 +5189,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 34394-2024</t>
+          <t>A 52089-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45525</v>
+        <v>45216</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.1</v>
+        <v>3.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5246,14 +5246,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 21464-2025</t>
+          <t>A 62334-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45782.57175925926</v>
+        <v>45266</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5303,14 +5303,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 14475-2025</t>
+          <t>A 26493-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45741</v>
+        <v>45092</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5360,14 +5360,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 14481-2025</t>
+          <t>A 22561-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45741</v>
+        <v>45069</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5417,14 +5417,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 445-2024</t>
+          <t>A 8130-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45296</v>
+        <v>45707</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5474,14 +5474,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 51772-2025</t>
+          <t>A 26478-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45951</v>
+        <v>45092</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.6</v>
+        <v>4.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5531,14 +5531,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 53293-2025</t>
+          <t>A 34727-2021</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45958</v>
+        <v>44382</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5588,14 +5588,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 52893-2025</t>
+          <t>A 60469-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45957</v>
+        <v>45258</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.7</v>
+        <v>8.4</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5645,14 +5645,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 10997-2024</t>
+          <t>A 9602-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45370.56016203704</v>
+        <v>44983.78570601852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5702,14 +5702,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 56570-2025</t>
+          <t>A 16297-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45974</v>
+        <v>44670.55493055555</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>4.4</v>
+        <v>1.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5759,14 +5759,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 20127-2025</t>
+          <t>A 33742-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45772</v>
+        <v>45520</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5816,14 +5816,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 20093-2025</t>
+          <t>A 21464-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45772</v>
+        <v>45782.57175925926</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5873,14 +5873,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 20155-2025</t>
+          <t>A 14475-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45772</v>
+        <v>45741</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -5930,14 +5930,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 48751-2025</t>
+          <t>A 14481-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45936</v>
+        <v>45741</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -5987,14 +5987,14 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 49688-2025</t>
+          <t>A 445-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45939</v>
+        <v>45296</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>16.1</v>
+        <v>1.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>

--- a/Översikt SÖLVESBORG.xlsx
+++ b/Översikt SÖLVESBORG.xlsx
@@ -575,7 +575,7 @@
         <v>45065</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>45590</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>44253</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>44509</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>44356</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44355</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>44488</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44365</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>44616</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>44355</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44355</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>44641</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44622</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>45433.35063657408</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>44623</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1479,14 +1479,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 31261-2021</t>
+          <t>A 48751-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44368</v>
+        <v>45936</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>45370.56016203704</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1593,14 +1593,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 46500-2023</t>
+          <t>A 31261-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45197</v>
+        <v>44368</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1650,14 +1650,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 49688-2025</t>
+          <t>A 24313-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45939</v>
+        <v>45797.52783564815</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>16.1</v>
+        <v>3.7</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1707,14 +1707,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 63571-2023</t>
+          <t>A 40054-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45275.39289351852</v>
+        <v>45894</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1764,14 +1764,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 27402-2025</t>
+          <t>A 46500-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45812.71793981481</v>
+        <v>45197</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.7</v>
+        <v>0.5</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1821,14 +1821,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 17612-2024</t>
+          <t>A 41565-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45416.45724537037</v>
+        <v>45901.60275462963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.5</v>
+        <v>3.9</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1878,14 +1878,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 7134-2023</t>
+          <t>A 27402-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44970.43828703704</v>
+        <v>45812.71793981481</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.5</v>
+        <v>3.7</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1935,14 +1935,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 24313-2025</t>
+          <t>A 63571-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45797.52783564815</v>
+        <v>45275.39289351852</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.7</v>
+        <v>1.8</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1992,14 +1992,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 14136-2025</t>
+          <t>A 17612-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45738</v>
+        <v>45416.45724537037</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2049,14 +2049,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 44871-2023</t>
+          <t>A 7134-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45190</v>
+        <v>44970.43828703704</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2106,14 +2106,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 52086-2023</t>
+          <t>A 14136-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45216</v>
+        <v>45738</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>8.1</v>
+        <v>0.5</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2163,14 +2163,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 22906-2024</t>
+          <t>A 44871-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45448</v>
+        <v>45190</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2220,14 +2220,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 40054-2025</t>
+          <t>A 32436-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45894</v>
+        <v>45838</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.3</v>
+        <v>6.3</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2277,14 +2277,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 20164-2023</t>
+          <t>A 44493-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45053</v>
+        <v>45916</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2334,14 +2334,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 44752-2023</t>
+          <t>A 52086-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45184</v>
+        <v>45216</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>4.6</v>
+        <v>8.1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2391,14 +2391,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 32517-2025</t>
+          <t>A 22906-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45838.47891203704</v>
+        <v>45448</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2448,14 +2448,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 32525-2025</t>
+          <t>A 44495-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45838.48854166667</v>
+        <v>45916</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.5</v>
+        <v>5.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2505,14 +2505,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 32514-2025</t>
+          <t>A 32517-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45838.475625</v>
+        <v>45838.47891203704</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2562,14 +2562,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 20316-2025</t>
+          <t>A 32525-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45775.32983796296</v>
+        <v>45838.48854166667</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2619,14 +2619,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 41565-2025</t>
+          <t>A 32514-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45901.60275462963</v>
+        <v>45838.475625</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.9</v>
+        <v>0.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2676,14 +2676,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 32974-2025</t>
+          <t>A 20164-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45839.7596875</v>
+        <v>45053</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2733,14 +2733,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 28228-2021</t>
+          <t>A 32974-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44355</v>
+        <v>45839.7596875</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2790,14 +2790,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 33817-2025</t>
+          <t>A 44752-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45842.46084490741</v>
+        <v>45184</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.7</v>
+        <v>4.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2847,14 +2847,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 52084-2023</t>
+          <t>A 33817-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45216</v>
+        <v>45842.46084490741</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2904,14 +2904,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 2327-2025</t>
+          <t>A 20316-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45673.63548611111</v>
+        <v>45775.32983796296</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2961,14 +2961,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 2325-2025</t>
+          <t>A 28228-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45673.63410879629</v>
+        <v>44355</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3018,14 +3018,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 34394-2024</t>
+          <t>A 52084-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45525</v>
+        <v>45216</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.1</v>
+        <v>1.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3075,14 +3075,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 12298-2022</t>
+          <t>A 2327-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44641</v>
+        <v>45673.63548611111</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3132,14 +3132,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 38317-2025</t>
+          <t>A 51772-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45883.48207175926</v>
+        <v>45951</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3189,14 +3189,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 5407-2024</t>
+          <t>A 2325-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45331.60685185185</v>
+        <v>45673.63410879629</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3246,14 +3246,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 38406-2025</t>
+          <t>A 38317-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45883.59122685185</v>
+        <v>45883.48207175926</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3303,14 +3303,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 32436-2025</t>
+          <t>A 38406-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45838</v>
+        <v>45883.59122685185</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>6.3</v>
+        <v>0.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3360,14 +3360,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 47242-2023</t>
+          <t>A 52893-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45197</v>
+        <v>45957</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>11.6</v>
+        <v>0.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3417,14 +3417,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 30992-2022</t>
+          <t>A 34394-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44768.536875</v>
+        <v>45525</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3474,14 +3474,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 44493-2025</t>
+          <t>A 53293-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45916</v>
+        <v>45958</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3531,14 +3531,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 44495-2025</t>
+          <t>A 12298-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45916</v>
+        <v>44641</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>5.2</v>
+        <v>2.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3588,14 +3588,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 10390-2024</t>
+          <t>A 5407-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45365</v>
+        <v>45331.60685185185</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3645,14 +3645,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 2200-2025</t>
+          <t>A 47242-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45673.393125</v>
+        <v>45197</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.5</v>
+        <v>11.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3702,14 +3702,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 2210-2025</t>
+          <t>A 30992-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45673.43063657408</v>
+        <v>44768.536875</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3759,14 +3759,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 20320-2025</t>
+          <t>A 49688-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45775.33391203704</v>
+        <v>45939</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4.2</v>
+        <v>16.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3816,14 +3816,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 8523-2025</t>
+          <t>A 10390-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45709</v>
+        <v>45365</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>6.7</v>
+        <v>1.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3873,14 +3873,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 61767-2022</t>
+          <t>A 56570-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44917.50982638889</v>
+        <v>45974</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3892,13 +3892,8 @@
           <t>SÖLVESBORG</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>0.8</v>
+        <v>4.4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3935,14 +3930,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 51772-2025</t>
+          <t>A 2200-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45951</v>
+        <v>45673.393125</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3955,7 +3950,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -3992,14 +3987,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 16188-2022</t>
+          <t>A 2210-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44669</v>
+        <v>45673.43063657408</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4012,7 +4007,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.7</v>
+        <v>1.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4049,14 +4044,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 2089-2024</t>
+          <t>A 14481-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45309</v>
+        <v>45741</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4069,7 +4064,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4106,14 +4101,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 52893-2025</t>
+          <t>A 20320-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45957</v>
+        <v>45775.33391203704</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4126,7 +4121,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.7</v>
+        <v>4.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4163,14 +4158,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 8837-2024</t>
+          <t>A 20093-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45356</v>
+        <v>45772</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4183,7 +4178,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4220,14 +4215,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 53293-2025</t>
+          <t>A 20155-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45958</v>
+        <v>45772</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4240,7 +4235,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4277,14 +4272,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 2832-2023</t>
+          <t>A 20127-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44945</v>
+        <v>45772</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4297,7 +4292,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4334,14 +4329,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 56570-2025</t>
+          <t>A 8523-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45974</v>
+        <v>45709</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4354,7 +4349,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4.4</v>
+        <v>6.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4391,14 +4386,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 51284-2023</t>
+          <t>A 61767-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45219</v>
+        <v>44917.50982638889</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4410,8 +4405,13 @@
           <t>SÖLVESBORG</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4448,14 +4448,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 5339-2024</t>
+          <t>A 16188-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45331</v>
+        <v>44669</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.9</v>
+        <v>3.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4505,14 +4505,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 9316-2024</t>
+          <t>A 2089-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45358</v>
+        <v>45309</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4525,7 +4525,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4562,14 +4562,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 39130-2024</t>
+          <t>A 8837-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45548</v>
+        <v>45356</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4619,14 +4619,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 66447-2021</t>
+          <t>A 2832-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44518.82853009259</v>
+        <v>44945</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4676,14 +4676,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 20093-2025</t>
+          <t>A 51284-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45772</v>
+        <v>45219</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4733,14 +4733,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 33766-2024</t>
+          <t>A 5339-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45520</v>
+        <v>45331</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4790,14 +4790,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 20155-2025</t>
+          <t>A 9316-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45772</v>
+        <v>45358</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4847,14 +4847,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 20127-2025</t>
+          <t>A 39130-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45772</v>
+        <v>45548</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4904,14 +4904,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 48751-2025</t>
+          <t>A 66447-2021</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45936</v>
+        <v>44518.82853009259</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4961,14 +4961,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 1070-2022</t>
+          <t>A 33766-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44571</v>
+        <v>45520</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5018,14 +5018,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 28478-2023</t>
+          <t>A 1070-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45103</v>
+        <v>44571</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5075,14 +5075,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 12848-2022</t>
+          <t>A 28478-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44642</v>
+        <v>45103</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5132,14 +5132,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 28080-2023</t>
+          <t>A 12848-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45099</v>
+        <v>44642</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5189,14 +5189,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 52089-2023</t>
+          <t>A 28080-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45216</v>
+        <v>45099</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.8</v>
+        <v>1.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5246,14 +5246,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 62334-2023</t>
+          <t>A 52089-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45266</v>
+        <v>45216</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>6.2</v>
+        <v>3.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5303,14 +5303,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 26493-2023</t>
+          <t>A 62334-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45092</v>
+        <v>45266</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.2</v>
+        <v>6.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5360,14 +5360,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 22561-2023</t>
+          <t>A 26493-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45069</v>
+        <v>45092</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5417,14 +5417,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 8130-2025</t>
+          <t>A 22561-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45707</v>
+        <v>45069</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5474,14 +5474,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 26478-2023</t>
+          <t>A 8130-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45092</v>
+        <v>45707</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>4.8</v>
+        <v>0.2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5531,14 +5531,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 34727-2021</t>
+          <t>A 26478-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44382</v>
+        <v>45092</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.8</v>
+        <v>4.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5588,14 +5588,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 60469-2023</t>
+          <t>A 34727-2021</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45258</v>
+        <v>44382</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>8.4</v>
+        <v>1.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5645,14 +5645,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 9602-2023</t>
+          <t>A 60469-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44983.78570601852</v>
+        <v>45258</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.8</v>
+        <v>8.4</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5702,14 +5702,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 16297-2022</t>
+          <t>A 9602-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44670.55493055555</v>
+        <v>44983.78570601852</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5759,14 +5759,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 33742-2024</t>
+          <t>A 16297-2022</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45520</v>
+        <v>44670.55493055555</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5816,14 +5816,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 21464-2025</t>
+          <t>A 33742-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45782.57175925926</v>
+        <v>45520</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>5.5</v>
+        <v>0.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5873,14 +5873,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 14475-2025</t>
+          <t>A 21464-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45741</v>
+        <v>45782.57175925926</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -5930,14 +5930,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 14481-2025</t>
+          <t>A 14475-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
         <v>45741</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -5994,7 +5994,7 @@
         <v>45296</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>

--- a/Översikt SÖLVESBORG.xlsx
+++ b/Översikt SÖLVESBORG.xlsx
@@ -575,7 +575,7 @@
         <v>45065</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>45590</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>44253</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>44509</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>44356</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44355</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>44488</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44365</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>44616</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>44355</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44355</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>44641</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44622</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>45433.35063657408</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1422,14 +1422,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 10403-2022</t>
+          <t>A 445-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44623</v>
+        <v>45296</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1479,14 +1479,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 48751-2025</t>
+          <t>A 10403-2022</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45936</v>
+        <v>44623</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1536,14 +1536,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 10997-2024</t>
+          <t>A 24313-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45370.56016203704</v>
+        <v>45797.52783564815</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>3.7</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1593,14 +1593,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 31261-2021</t>
+          <t>A 10997-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44368</v>
+        <v>45370.56016203704</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1650,14 +1650,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 24313-2025</t>
+          <t>A 56570-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45797.52783564815</v>
+        <v>45974</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1714,7 +1714,7 @@
         <v>45894</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1764,14 +1764,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 46500-2023</t>
+          <t>A 31261-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45197</v>
+        <v>44368</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>45901.60275462963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1878,14 +1878,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 27402-2025</t>
+          <t>A 46500-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45812.71793981481</v>
+        <v>45197</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.7</v>
+        <v>0.5</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1935,14 +1935,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 63571-2023</t>
+          <t>A 27402-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45275.39289351852</v>
+        <v>45812.71793981481</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1992,14 +1992,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 17612-2024</t>
+          <t>A 63571-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45416.45724537037</v>
+        <v>45275.39289351852</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2049,14 +2049,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 7134-2023</t>
+          <t>A 32436-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44970.43828703704</v>
+        <v>45838</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.5</v>
+        <v>6.3</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2106,14 +2106,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 14136-2025</t>
+          <t>A 44493-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45738</v>
+        <v>45916</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.5</v>
+        <v>3.4</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2163,14 +2163,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 44871-2023</t>
+          <t>A 44495-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45190</v>
+        <v>45916</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.1</v>
+        <v>5.2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2220,14 +2220,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 32436-2025</t>
+          <t>A 17612-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45838</v>
+        <v>45416.45724537037</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>6.3</v>
+        <v>1.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2277,14 +2277,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 44493-2025</t>
+          <t>A 7134-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45916</v>
+        <v>44970.43828703704</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2334,14 +2334,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 52086-2023</t>
+          <t>A 14136-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45216</v>
+        <v>45738</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>8.1</v>
+        <v>0.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2391,14 +2391,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 22906-2024</t>
+          <t>A 44871-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45448</v>
+        <v>45190</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2448,14 +2448,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 44495-2025</t>
+          <t>A 52086-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45916</v>
+        <v>45216</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>5.2</v>
+        <v>8.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2505,14 +2505,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 32517-2025</t>
+          <t>A 22906-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45838.47891203704</v>
+        <v>45448</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2562,14 +2562,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 32525-2025</t>
+          <t>A 32517-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45838.48854166667</v>
+        <v>45838.47891203704</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2619,14 +2619,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 32514-2025</t>
+          <t>A 32525-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45838.475625</v>
+        <v>45838.48854166667</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>45053</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2733,14 +2733,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 32974-2025</t>
+          <t>A 32514-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45839.7596875</v>
+        <v>45838.475625</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2797,7 +2797,7 @@
         <v>45184</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2847,14 +2847,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 33817-2025</t>
+          <t>A 20316-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45842.46084490741</v>
+        <v>45775.32983796296</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2904,14 +2904,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 20316-2025</t>
+          <t>A 32974-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45775.32983796296</v>
+        <v>45839.7596875</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2961,14 +2961,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 28228-2021</t>
+          <t>A 33817-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44355</v>
+        <v>45842.46084490741</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3018,14 +3018,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 52084-2023</t>
+          <t>A 28228-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45216</v>
+        <v>44355</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3075,14 +3075,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 2327-2025</t>
+          <t>A 52084-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45673.63548611111</v>
+        <v>45216</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3139,7 +3139,7 @@
         <v>45951</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3189,14 +3189,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 2325-2025</t>
+          <t>A 52893-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45673.63410879629</v>
+        <v>45957</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3246,14 +3246,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 38317-2025</t>
+          <t>A 2327-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45883.48207175926</v>
+        <v>45673.63548611111</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3303,14 +3303,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 38406-2025</t>
+          <t>A 53293-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45883.59122685185</v>
+        <v>45958</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3360,14 +3360,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 52893-2025</t>
+          <t>A 2325-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45957</v>
+        <v>45673.63410879629</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3424,7 +3424,7 @@
         <v>45525</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3474,14 +3474,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 53293-2025</t>
+          <t>A 12298-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45958</v>
+        <v>44641</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3531,14 +3531,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 12298-2022</t>
+          <t>A 38317-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44641</v>
+        <v>45883.48207175926</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3595,7 +3595,7 @@
         <v>45331.60685185185</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3645,14 +3645,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 47242-2023</t>
+          <t>A 38406-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45197</v>
+        <v>45883.59122685185</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>11.6</v>
+        <v>0.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3702,14 +3702,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 30992-2022</t>
+          <t>A 20093-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44768.536875</v>
+        <v>45772</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3759,14 +3759,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 49688-2025</t>
+          <t>A 47242-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45939</v>
+        <v>45197</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>16.1</v>
+        <v>11.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3816,14 +3816,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 10390-2024</t>
+          <t>A 20155-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45365</v>
+        <v>45772</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3873,14 +3873,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 56570-2025</t>
+          <t>A 30992-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45974</v>
+        <v>44768.536875</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4.4</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3930,14 +3930,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 2200-2025</t>
+          <t>A 20127-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45673.393125</v>
+        <v>45772</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -3987,14 +3987,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 2210-2025</t>
+          <t>A 10390-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45673.43063657408</v>
+        <v>45365</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4044,14 +4044,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 14481-2025</t>
+          <t>A 2200-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45741</v>
+        <v>45673.393125</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4101,14 +4101,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 20320-2025</t>
+          <t>A 2210-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45775.33391203704</v>
+        <v>45673.43063657408</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4158,14 +4158,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 20093-2025</t>
+          <t>A 20320-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45772</v>
+        <v>45775.33391203704</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4215,14 +4215,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 20155-2025</t>
+          <t>A 48751-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45772</v>
+        <v>45936</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4272,14 +4272,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 20127-2025</t>
+          <t>A 8523-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45772</v>
+        <v>45709</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.1</v>
+        <v>6.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4329,14 +4329,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 8523-2025</t>
+          <t>A 61767-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45709</v>
+        <v>44917.50982638889</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4348,8 +4348,13 @@
           <t>SÖLVESBORG</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>6.7</v>
+        <v>0.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4386,14 +4391,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 61767-2022</t>
+          <t>A 16188-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44917.50982638889</v>
+        <v>44669</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4405,13 +4410,8 @@
           <t>SÖLVESBORG</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>0.8</v>
+        <v>3.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4448,14 +4448,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 16188-2022</t>
+          <t>A 2089-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44669</v>
+        <v>45309</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4505,14 +4505,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 2089-2024</t>
+          <t>A 8837-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45309</v>
+        <v>45356</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4525,7 +4525,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4562,14 +4562,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 8837-2024</t>
+          <t>A 2832-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45356</v>
+        <v>44945</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4619,14 +4619,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 2832-2023</t>
+          <t>A 14481-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44945</v>
+        <v>45741</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4676,14 +4676,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 51284-2023</t>
+          <t>A 49688-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45219</v>
+        <v>45939</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.4</v>
+        <v>16.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4733,14 +4733,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 5339-2024</t>
+          <t>A 51284-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45331</v>
+        <v>45219</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4790,14 +4790,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 9316-2024</t>
+          <t>A 5339-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45358</v>
+        <v>45331</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>4</v>
+        <v>1.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4847,14 +4847,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 39130-2024</t>
+          <t>A 9316-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45548</v>
+        <v>45358</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4904,14 +4904,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 66447-2021</t>
+          <t>A 39130-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44518.82853009259</v>
+        <v>45548</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -4961,14 +4961,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 33766-2024</t>
+          <t>A 66447-2021</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45520</v>
+        <v>44518.82853009259</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5018,14 +5018,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 1070-2022</t>
+          <t>A 33766-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44571</v>
+        <v>45520</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5075,14 +5075,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 28478-2023</t>
+          <t>A 1070-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45103</v>
+        <v>44571</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5132,14 +5132,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 12848-2022</t>
+          <t>A 28478-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44642</v>
+        <v>45103</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5189,14 +5189,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 28080-2023</t>
+          <t>A 12848-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45099</v>
+        <v>44642</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5246,14 +5246,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 52089-2023</t>
+          <t>A 28080-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45216</v>
+        <v>45099</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.8</v>
+        <v>1.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5303,14 +5303,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 62334-2023</t>
+          <t>A 52089-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45266</v>
+        <v>45216</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>6.2</v>
+        <v>3.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5360,14 +5360,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 26493-2023</t>
+          <t>A 62334-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45092</v>
+        <v>45266</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.2</v>
+        <v>6.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5417,14 +5417,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 22561-2023</t>
+          <t>A 26493-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45069</v>
+        <v>45092</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5474,14 +5474,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 8130-2025</t>
+          <t>A 22561-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45707</v>
+        <v>45069</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5531,14 +5531,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 26478-2023</t>
+          <t>A 8130-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45092</v>
+        <v>45707</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4.8</v>
+        <v>0.2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5588,14 +5588,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 34727-2021</t>
+          <t>A 26478-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44382</v>
+        <v>45092</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.8</v>
+        <v>4.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5645,14 +5645,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 60469-2023</t>
+          <t>A 34727-2021</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45258</v>
+        <v>44382</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>8.4</v>
+        <v>1.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5702,14 +5702,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 9602-2023</t>
+          <t>A 60469-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44983.78570601852</v>
+        <v>45258</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.8</v>
+        <v>8.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5759,14 +5759,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 16297-2022</t>
+          <t>A 9602-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44670.55493055555</v>
+        <v>44983.78570601852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5816,14 +5816,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 33742-2024</t>
+          <t>A 16297-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45520</v>
+        <v>44670.55493055555</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5873,14 +5873,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 21464-2025</t>
+          <t>A 33742-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45782.57175925926</v>
+        <v>45520</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>5.5</v>
+        <v>0.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -5930,14 +5930,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 14475-2025</t>
+          <t>A 21464-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45741</v>
+        <v>45782.57175925926</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -5987,14 +5987,14 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 445-2024</t>
+          <t>A 14475-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45296</v>
+        <v>45741</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>

--- a/Översikt SÖLVESBORG.xlsx
+++ b/Översikt SÖLVESBORG.xlsx
@@ -575,7 +575,7 @@
         <v>45065</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>45590</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>44253</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>44509</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>44356</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44355</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>44488</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44365</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>44616</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>44355</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44355</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>44641</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44622</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1365,14 +1365,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 19827-2024</t>
+          <t>A 22561-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45433.35063657408</v>
+        <v>45069</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1422,14 +1422,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 445-2024</t>
+          <t>A 34394-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45296</v>
+        <v>45525</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.4</v>
+        <v>0.1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1479,14 +1479,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 10403-2022</t>
+          <t>A 20320-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44623</v>
+        <v>45775.33391203704</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1536,14 +1536,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 24313-2025</t>
+          <t>A 38317-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45797.52783564815</v>
+        <v>45883.48207175926</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.7</v>
+        <v>2</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1593,14 +1593,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 10997-2024</t>
+          <t>A 38406-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45370.56016203704</v>
+        <v>45883.59122685185</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1650,14 +1650,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 56570-2025</t>
+          <t>A 21464-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45974</v>
+        <v>45782.57175925926</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4.4</v>
+        <v>5.5</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1707,14 +1707,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 40054-2025</t>
+          <t>A 24313-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45894</v>
+        <v>45797.52783564815</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.3</v>
+        <v>3.7</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1764,14 +1764,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 31261-2021</t>
+          <t>A 14475-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44368</v>
+        <v>45741</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1821,14 +1821,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 41565-2025</t>
+          <t>A 52084-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45901.60275462963</v>
+        <v>45216</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.9</v>
+        <v>1.6</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1878,14 +1878,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 46500-2023</t>
+          <t>A 445-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45197</v>
+        <v>45296</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1935,14 +1935,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 27402-2025</t>
+          <t>A 40054-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45812.71793981481</v>
+        <v>45894</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.7</v>
+        <v>2.3</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1992,14 +1992,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 63571-2023</t>
+          <t>A 41565-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45275.39289351852</v>
+        <v>45901.60275462963</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.8</v>
+        <v>3.9</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2049,14 +2049,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 32436-2025</t>
+          <t>A 10997-2024</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45838</v>
+        <v>45370.56016203704</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>6.3</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2106,14 +2106,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 44493-2025</t>
+          <t>A 51772-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45916</v>
+        <v>45951</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.4</v>
+        <v>0.6</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2163,14 +2163,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 44495-2025</t>
+          <t>A 53293-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45916</v>
+        <v>45958</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>5.2</v>
+        <v>0.9</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2220,14 +2220,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 17612-2024</t>
+          <t>A 52893-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45416.45724537037</v>
+        <v>45957</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2277,14 +2277,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 7134-2023</t>
+          <t>A 32436-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44970.43828703704</v>
+        <v>45838</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.5</v>
+        <v>6.3</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2334,14 +2334,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 14136-2025</t>
+          <t>A 44495-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45738</v>
+        <v>45916</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.5</v>
+        <v>5.2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2391,14 +2391,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 44871-2023</t>
+          <t>A 44493-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45190</v>
+        <v>45916</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2448,14 +2448,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 52086-2023</t>
+          <t>A 12298-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45216</v>
+        <v>44641</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>8.1</v>
+        <v>2.4</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2512,7 +2512,7 @@
         <v>45448</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2562,14 +2562,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 32517-2025</t>
+          <t>A 10390-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45838.47891203704</v>
+        <v>45365</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2619,14 +2619,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 32525-2025</t>
+          <t>A 27402-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45838.48854166667</v>
+        <v>45812.71793981481</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.5</v>
+        <v>3.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2676,14 +2676,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 20164-2023</t>
+          <t>A 17612-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45053</v>
+        <v>45416.45724537037</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2733,14 +2733,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 32514-2025</t>
+          <t>A 56570-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45838.475625</v>
+        <v>45974</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.5</v>
+        <v>4.4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2790,14 +2790,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 44752-2023</t>
+          <t>A 16188-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45184</v>
+        <v>44669</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2847,14 +2847,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 20316-2025</t>
+          <t>A 12848-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45775.32983796296</v>
+        <v>44642</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2904,14 +2904,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 32974-2025</t>
+          <t>A 32517-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45839.7596875</v>
+        <v>45838.47891203704</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2961,14 +2961,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 33817-2025</t>
+          <t>A 32514-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45842.46084490741</v>
+        <v>45838.475625</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3018,14 +3018,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 28228-2021</t>
+          <t>A 32525-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44355</v>
+        <v>45838.48854166667</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3075,14 +3075,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 52084-2023</t>
+          <t>A 14136-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45216</v>
+        <v>45738</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3132,14 +3132,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 51772-2025</t>
+          <t>A 16297-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45951</v>
+        <v>44670.55493055555</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3189,14 +3189,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 52893-2025</t>
+          <t>A 32974-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45957</v>
+        <v>45839.7596875</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3246,14 +3246,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 2327-2025</t>
+          <t>A 33817-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45673.63548611111</v>
+        <v>45842.46084490741</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3303,14 +3303,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 53293-2025</t>
+          <t>A 20127-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45958</v>
+        <v>45772</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3360,14 +3360,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 2325-2025</t>
+          <t>A 20093-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45673.63410879629</v>
+        <v>45772</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3417,14 +3417,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 34394-2024</t>
+          <t>A 20155-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45525</v>
+        <v>45772</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.1</v>
+        <v>1.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3474,14 +3474,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 12298-2022</t>
+          <t>A 63571-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44641</v>
+        <v>45275.39289351852</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3531,14 +3531,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 38317-2025</t>
+          <t>A 26478-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45883.48207175926</v>
+        <v>45092</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2</v>
+        <v>4.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3588,14 +3588,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 5407-2024</t>
+          <t>A 28080-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45331.60685185185</v>
+        <v>45099</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3645,14 +3645,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 38406-2025</t>
+          <t>A 62334-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45883.59122685185</v>
+        <v>45266</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.5</v>
+        <v>6.2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3702,14 +3702,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 20093-2025</t>
+          <t>A 28228-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45772</v>
+        <v>44355</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3759,14 +3759,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 47242-2023</t>
+          <t>A 31261-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45197</v>
+        <v>44368</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>11.6</v>
+        <v>3.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3816,14 +3816,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 20155-2025</t>
+          <t>A 34727-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45772</v>
+        <v>44382</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3873,14 +3873,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 30992-2022</t>
+          <t>A 48751-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44768.536875</v>
+        <v>45936</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3930,14 +3930,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 20127-2025</t>
+          <t>A 46500-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45772</v>
+        <v>45197</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -3987,14 +3987,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 10390-2024</t>
+          <t>A 33766-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45365</v>
+        <v>45520</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4044,14 +4044,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 2200-2025</t>
+          <t>A 39130-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45673.393125</v>
+        <v>45548</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4101,14 +4101,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 2210-2025</t>
+          <t>A 26493-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45673.43063657408</v>
+        <v>45092</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4158,14 +4158,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 20320-2025</t>
+          <t>A 7134-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45775.33391203704</v>
+        <v>44970.43828703704</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>4.2</v>
+        <v>0.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4215,14 +4215,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 48751-2025</t>
+          <t>A 52086-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45936</v>
+        <v>45216</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.6</v>
+        <v>8.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4272,14 +4272,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 8523-2025</t>
+          <t>A 19827-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45709</v>
+        <v>45433.35063657408</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>6.7</v>
+        <v>0.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4329,14 +4329,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 61767-2022</t>
+          <t>A 28478-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44917.50982638889</v>
+        <v>45103</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4348,13 +4348,8 @@
           <t>SÖLVESBORG</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4391,14 +4386,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 16188-2022</t>
+          <t>A 1070-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44669</v>
+        <v>44571</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4411,7 +4406,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4448,14 +4443,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 2089-2024</t>
+          <t>A 33742-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45309</v>
+        <v>45520</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4468,7 +4463,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3.7</v>
+        <v>0.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4505,14 +4500,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 8837-2024</t>
+          <t>A 14481-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45356</v>
+        <v>45741</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4525,7 +4520,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4562,14 +4557,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 2832-2023</t>
+          <t>A 49688-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44945</v>
+        <v>45939</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4582,7 +4577,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.1</v>
+        <v>16.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4619,14 +4614,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 14481-2025</t>
+          <t>A 9602-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45741</v>
+        <v>44983.78570601852</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4639,7 +4634,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4676,14 +4671,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 49688-2025</t>
+          <t>A 2200-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45939</v>
+        <v>45673.393125</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4696,7 +4691,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>16.1</v>
+        <v>0.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4733,14 +4728,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 51284-2023</t>
+          <t>A 2210-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45219</v>
+        <v>45673.43063657408</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4753,7 +4748,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4790,14 +4785,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 5339-2024</t>
+          <t>A 44871-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45331</v>
+        <v>45190</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4810,7 +4805,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4847,14 +4842,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 9316-2024</t>
+          <t>A 47242-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45358</v>
+        <v>45197</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4867,7 +4862,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4</v>
+        <v>11.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4904,14 +4899,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 39130-2024</t>
+          <t>A 8130-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45548</v>
+        <v>45707</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4924,7 +4919,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.3</v>
+        <v>0.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -4961,14 +4956,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 66447-2021</t>
+          <t>A 30992-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44518.82853009259</v>
+        <v>44768.536875</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4981,7 +4976,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5018,14 +5013,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 33766-2024</t>
+          <t>A 66447-2021</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45520</v>
+        <v>44518.82853009259</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5038,7 +5033,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5075,14 +5070,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 1070-2022</t>
+          <t>A 52089-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44571</v>
+        <v>45216</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5095,7 +5090,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5132,14 +5127,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 28478-2023</t>
+          <t>A 2327-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45103</v>
+        <v>45673.63548611111</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5152,7 +5147,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5189,14 +5184,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 12848-2022</t>
+          <t>A 2325-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44642</v>
+        <v>45673.63410879629</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5209,7 +5204,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5246,14 +5241,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 28080-2023</t>
+          <t>A 5339-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45099</v>
+        <v>45331</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5266,7 +5261,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5303,14 +5298,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 52089-2023</t>
+          <t>A 5407-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45216</v>
+        <v>45331.60685185185</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5323,7 +5318,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.8</v>
+        <v>0.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5360,14 +5355,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 62334-2023</t>
+          <t>A 9316-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45266</v>
+        <v>45358</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5380,7 +5375,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>6.2</v>
+        <v>4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5417,14 +5412,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 26493-2023</t>
+          <t>A 10403-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45092</v>
+        <v>44623</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5437,7 +5432,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5474,14 +5469,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 22561-2023</t>
+          <t>A 8837-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45069</v>
+        <v>45356</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5494,7 +5489,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5531,14 +5526,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 8130-2025</t>
+          <t>A 2832-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45707</v>
+        <v>44945</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5551,7 +5546,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5588,14 +5583,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 26478-2023</t>
+          <t>A 20164-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45092</v>
+        <v>45053</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5608,7 +5603,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>4.8</v>
+        <v>1.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5645,14 +5640,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 34727-2021</t>
+          <t>A 61767-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44382</v>
+        <v>44917.50982638889</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5664,8 +5659,13 @@
           <t>SÖLVESBORG</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5702,14 +5702,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 60469-2023</t>
+          <t>A 8523-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45258</v>
+        <v>45709</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>8.4</v>
+        <v>6.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5759,14 +5759,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 9602-2023</t>
+          <t>A 60469-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44983.78570601852</v>
+        <v>45258</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.8</v>
+        <v>8.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5816,14 +5816,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 16297-2022</t>
+          <t>A 44752-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44670.55493055555</v>
+        <v>45184</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.3</v>
+        <v>4.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5873,14 +5873,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 33742-2024</t>
+          <t>A 20316-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45520</v>
+        <v>45775.32983796296</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -5930,14 +5930,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 21464-2025</t>
+          <t>A 51284-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45782.57175925926</v>
+        <v>45219</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>5.5</v>
+        <v>1.4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -5987,14 +5987,14 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 14475-2025</t>
+          <t>A 2089-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45741</v>
+        <v>45309</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>

--- a/Översikt SÖLVESBORG.xlsx
+++ b/Översikt SÖLVESBORG.xlsx
@@ -575,7 +575,7 @@
         <v>45065</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>45590</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>44253</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>44509</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>44356</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44355</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>44488</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44365</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>44616</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>44355</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44355</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>44641</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44622</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1365,14 +1365,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 22561-2023</t>
+          <t>A 19827-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45069</v>
+        <v>45433.35063657408</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1422,14 +1422,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 34394-2024</t>
+          <t>A 10403-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45525</v>
+        <v>44623</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.1</v>
+        <v>1.8</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1479,14 +1479,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 20320-2025</t>
+          <t>A 31261-2021</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45775.33391203704</v>
+        <v>44368</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1536,14 +1536,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 38317-2025</t>
+          <t>A 46500-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45883.48207175926</v>
+        <v>45197</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1593,14 +1593,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 38406-2025</t>
+          <t>A 63571-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45883.59122685185</v>
+        <v>45275.39289351852</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1650,14 +1650,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 21464-2025</t>
+          <t>A 17612-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45782.57175925926</v>
+        <v>45416.45724537037</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1707,14 +1707,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 24313-2025</t>
+          <t>A 14136-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45797.52783564815</v>
+        <v>45738</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.7</v>
+        <v>0.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1764,14 +1764,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 14475-2025</t>
+          <t>A 44871-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45741</v>
+        <v>45190</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1821,14 +1821,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 52084-2023</t>
+          <t>A 7134-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45216</v>
+        <v>44970.43828703704</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1878,14 +1878,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 445-2024</t>
+          <t>A 52086-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45296</v>
+        <v>45216</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.4</v>
+        <v>8.1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1935,14 +1935,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 40054-2025</t>
+          <t>A 22906-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45894</v>
+        <v>45448</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1992,14 +1992,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 41565-2025</t>
+          <t>A 24313-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45901.60275462963</v>
+        <v>45797.52783564815</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2049,14 +2049,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 10997-2024</t>
+          <t>A 40054-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45370.56016203704</v>
+        <v>45894</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2106,14 +2106,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 51772-2025</t>
+          <t>A 20164-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45951</v>
+        <v>45053</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2163,14 +2163,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 53293-2025</t>
+          <t>A 44752-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45958</v>
+        <v>45184</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.9</v>
+        <v>4.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2220,14 +2220,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 52893-2025</t>
+          <t>A 41565-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45957</v>
+        <v>45901.60275462963</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.7</v>
+        <v>3.9</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2277,14 +2277,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 32436-2025</t>
+          <t>A 20316-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45838</v>
+        <v>45775.32983796296</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>6.3</v>
+        <v>1.8</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2334,14 +2334,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 44495-2025</t>
+          <t>A 28228-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45916</v>
+        <v>44355</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>5.2</v>
+        <v>1.1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2391,14 +2391,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 44493-2025</t>
+          <t>A 32517-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45916</v>
+        <v>45838.47891203704</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2448,14 +2448,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 12298-2022</t>
+          <t>A 32525-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44641</v>
+        <v>45838.48854166667</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2505,14 +2505,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 22906-2024</t>
+          <t>A 32514-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45448</v>
+        <v>45838.475625</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2562,14 +2562,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 10390-2024</t>
+          <t>A 52084-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45365</v>
+        <v>45216</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2619,14 +2619,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 27402-2025</t>
+          <t>A 32974-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45812.71793981481</v>
+        <v>45839.7596875</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.7</v>
+        <v>1.9</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2676,14 +2676,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 17612-2024</t>
+          <t>A 33817-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45416.45724537037</v>
+        <v>45842.46084490741</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2733,14 +2733,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 56570-2025</t>
+          <t>A 32436-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45974</v>
+        <v>45838</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>4.4</v>
+        <v>6.3</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2790,14 +2790,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 16188-2022</t>
+          <t>A 44493-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44669</v>
+        <v>45916</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2847,14 +2847,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 12848-2022</t>
+          <t>A 44495-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44642</v>
+        <v>45916</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.1</v>
+        <v>5.2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2904,14 +2904,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 32517-2025</t>
+          <t>A 2327-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45838.47891203704</v>
+        <v>45673.63548611111</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2961,14 +2961,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 32514-2025</t>
+          <t>A 2325-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45838.475625</v>
+        <v>45673.63410879629</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3018,14 +3018,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 32525-2025</t>
+          <t>A 34394-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45838.48854166667</v>
+        <v>45525</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3075,14 +3075,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 14136-2025</t>
+          <t>A 12298-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45738</v>
+        <v>44641</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3132,14 +3132,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 16297-2022</t>
+          <t>A 5407-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44670.55493055555</v>
+        <v>45331.60685185185</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3189,14 +3189,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 32974-2025</t>
+          <t>A 47242-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45839.7596875</v>
+        <v>45197</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.9</v>
+        <v>11.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3246,14 +3246,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 33817-2025</t>
+          <t>A 30992-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45842.46084490741</v>
+        <v>44768.536875</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3303,14 +3303,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 20127-2025</t>
+          <t>A 10390-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45772</v>
+        <v>45365</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3360,14 +3360,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 20093-2025</t>
+          <t>A 38317-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45772</v>
+        <v>45883.48207175926</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3417,14 +3417,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 20155-2025</t>
+          <t>A 38406-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45772</v>
+        <v>45883.59122685185</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3474,14 +3474,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 63571-2023</t>
+          <t>A 2200-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45275.39289351852</v>
+        <v>45673.393125</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3531,14 +3531,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 26478-2023</t>
+          <t>A 2210-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45092</v>
+        <v>45673.43063657408</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4.8</v>
+        <v>1.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3588,14 +3588,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 28080-2023</t>
+          <t>A 20320-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45099</v>
+        <v>45775.33391203704</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.6</v>
+        <v>4.2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3645,14 +3645,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 62334-2023</t>
+          <t>A 51772-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45266</v>
+        <v>45951</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>6.2</v>
+        <v>0.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3702,14 +3702,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 28228-2021</t>
+          <t>A 52893-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44355</v>
+        <v>45957</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3759,14 +3759,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 31261-2021</t>
+          <t>A 53293-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44368</v>
+        <v>45958</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3816,14 +3816,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 34727-2021</t>
+          <t>A 8523-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44382</v>
+        <v>45709</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.8</v>
+        <v>6.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3873,14 +3873,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 48751-2025</t>
+          <t>A 61767-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45936</v>
+        <v>44917.50982638889</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3892,8 +3892,13 @@
           <t>SÖLVESBORG</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3930,14 +3935,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 46500-2023</t>
+          <t>A 16188-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45197</v>
+        <v>44669</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3950,7 +3955,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.5</v>
+        <v>3.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -3987,14 +3992,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 33766-2024</t>
+          <t>A 56570-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45520</v>
+        <v>45974</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4007,7 +4012,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.5</v>
+        <v>4.4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4044,14 +4049,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 39130-2024</t>
+          <t>A 2089-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45548</v>
+        <v>45309</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4064,7 +4069,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.3</v>
+        <v>3.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4101,14 +4106,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 26493-2023</t>
+          <t>A 8837-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45092</v>
+        <v>45356</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4121,7 +4126,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4158,14 +4163,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 7134-2023</t>
+          <t>A 20093-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44970.43828703704</v>
+        <v>45772</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4178,7 +4183,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4215,14 +4220,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 52086-2023</t>
+          <t>A 20155-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45216</v>
+        <v>45772</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4235,7 +4240,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>8.1</v>
+        <v>1.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4272,14 +4277,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 19827-2024</t>
+          <t>A 20127-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45433.35063657408</v>
+        <v>45772</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4292,7 +4297,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4329,14 +4334,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 28478-2023</t>
+          <t>A 2832-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45103</v>
+        <v>44945</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4349,7 +4354,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4386,14 +4391,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 1070-2022</t>
+          <t>A 51284-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44571</v>
+        <v>45219</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4406,7 +4411,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4443,14 +4448,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 33742-2024</t>
+          <t>A 48751-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45520</v>
+        <v>45936</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4463,7 +4468,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.4</v>
+        <v>2.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4500,14 +4505,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 14481-2025</t>
+          <t>A 5339-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45741</v>
+        <v>45331</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4520,7 +4525,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4557,14 +4562,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 49688-2025</t>
+          <t>A 9316-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45939</v>
+        <v>45358</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4577,7 +4582,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>16.1</v>
+        <v>4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4614,14 +4619,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 9602-2023</t>
+          <t>A 39130-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44983.78570601852</v>
+        <v>45548</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4634,7 +4639,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4671,14 +4676,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 2200-2025</t>
+          <t>A 66447-2021</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45673.393125</v>
+        <v>44518.82853009259</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4691,7 +4696,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4728,14 +4733,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 2210-2025</t>
+          <t>A 33766-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45673.43063657408</v>
+        <v>45520</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4748,7 +4753,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4785,14 +4790,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 44871-2023</t>
+          <t>A 14481-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45190</v>
+        <v>45741</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4805,7 +4810,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4842,14 +4847,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 47242-2023</t>
+          <t>A 49688-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45197</v>
+        <v>45939</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4862,7 +4867,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>11.6</v>
+        <v>16.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4899,14 +4904,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 8130-2025</t>
+          <t>A 1070-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45707</v>
+        <v>44571</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4919,7 +4924,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -4956,14 +4961,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 30992-2022</t>
+          <t>A 28478-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44768.536875</v>
+        <v>45103</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4976,7 +4981,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5013,14 +5018,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 66447-2021</t>
+          <t>A 12848-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44518.82853009259</v>
+        <v>44642</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5033,7 +5038,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5070,14 +5075,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 52089-2023</t>
+          <t>A 28080-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45216</v>
+        <v>45099</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5090,7 +5095,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.8</v>
+        <v>1.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5127,14 +5132,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 2327-2025</t>
+          <t>A 52089-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45673.63548611111</v>
+        <v>45216</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5147,7 +5152,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5184,14 +5189,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 2325-2025</t>
+          <t>A 62334-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45673.63410879629</v>
+        <v>45266</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5204,7 +5209,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.6</v>
+        <v>6.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5241,14 +5246,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 5339-2024</t>
+          <t>A 26493-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45331</v>
+        <v>45092</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5261,7 +5266,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.9</v>
+        <v>3.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5298,14 +5303,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 5407-2024</t>
+          <t>A 22561-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45331.60685185185</v>
+        <v>45069</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5318,7 +5323,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5355,14 +5360,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 9316-2024</t>
+          <t>A 8130-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45358</v>
+        <v>45707</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5375,7 +5380,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5412,14 +5417,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 10403-2022</t>
+          <t>A 26478-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44623</v>
+        <v>45092</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5432,7 +5437,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.8</v>
+        <v>4.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5469,14 +5474,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 8837-2024</t>
+          <t>A 34727-2021</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45356</v>
+        <v>44382</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5489,7 +5494,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5526,14 +5531,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 2832-2023</t>
+          <t>A 60469-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44945</v>
+        <v>45258</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5546,7 +5551,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.1</v>
+        <v>8.4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5583,14 +5588,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 20164-2023</t>
+          <t>A 9602-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45053</v>
+        <v>44983.78570601852</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5603,7 +5608,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5640,14 +5645,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 61767-2022</t>
+          <t>A 16297-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44917.50982638889</v>
+        <v>44670.55493055555</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5659,13 +5664,8 @@
           <t>SÖLVESBORG</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5702,14 +5702,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 8523-2025</t>
+          <t>A 33742-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45709</v>
+        <v>45520</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>6.7</v>
+        <v>0.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5759,14 +5759,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 60469-2023</t>
+          <t>A 21464-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45258</v>
+        <v>45782.57175925926</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>8.4</v>
+        <v>5.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5816,14 +5816,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 44752-2023</t>
+          <t>A 14475-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45184</v>
+        <v>45741</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4.6</v>
+        <v>3.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5873,14 +5873,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 20316-2025</t>
+          <t>A 445-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45775.32983796296</v>
+        <v>45296</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -5930,14 +5930,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 51284-2023</t>
+          <t>A 10997-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45219</v>
+        <v>45370.56016203704</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -5987,14 +5987,14 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 2089-2024</t>
+          <t>A 27402-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45309</v>
+        <v>45812.71793981481</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>

--- a/Översikt SÖLVESBORG.xlsx
+++ b/Översikt SÖLVESBORG.xlsx
@@ -575,7 +575,7 @@
         <v>45065</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>45590</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>44253</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>44509</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>44356</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44355</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>44488</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44365</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>44616</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>44355</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44355</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>44641</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44622</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>45433.35063657408</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>44623</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>44368</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45197</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>45275.39289351852</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>45416.45724537037</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>45738</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>45190</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>44970.43828703704</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>45216</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>45448</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>45797.52783564815</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>45894</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>45053</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>45184</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>45901.60275462963</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>45775.32983796296</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>44355</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>45838.47891203704</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>45838.48854166667</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>45838.475625</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>45216</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>45839.7596875</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>45842.46084490741</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>45838</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>45916</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>45916</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>45673.63548611111</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>45673.63410879629</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>45525</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>44641</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>45331.60685185185</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>45197</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>44768.536875</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>45365</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>45883.48207175926</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>45883.59122685185</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         <v>45673.393125</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>45673.43063657408</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>45775.33391203704</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>45951</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>45957</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>45958</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>45709</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>44917.50982638889</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>44669</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>45974</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>45309</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>45356</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>45772</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>45772</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         <v>45772</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>44945</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>45219</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         <v>45936</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>45331</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>45358</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>45548</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>44518.82853009259</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>45520</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>45741</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>45939</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>44571</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>45103</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>44642</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>45099</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>45216</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>45266</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>45092</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>45069</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>45707</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>45092</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>44382</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>45258</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>44983.78570601852</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>44670.55493055555</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>45520</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>45782.57175925926</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>45741</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>45296</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>45370.56016203704</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>45812.71793981481</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>

--- a/Översikt SÖLVESBORG.xlsx
+++ b/Översikt SÖLVESBORG.xlsx
@@ -575,7 +575,7 @@
         <v>45065</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>45590</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>44253</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>44509</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>44356</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44355</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>44488</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44365</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>44616</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>44355</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44355</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>44641</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44622</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>45433.35063657408</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>44623</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>44368</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45197</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>45275.39289351852</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>45416.45724537037</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>45738</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>45190</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>44970.43828703704</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>45216</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>45448</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>45797.52783564815</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>45894</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>45053</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>45184</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>45901.60275462963</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>45775.32983796296</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>44355</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>45838.47891203704</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>45838.48854166667</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>45838.475625</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>45216</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>45839.7596875</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>45842.46084490741</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>45838</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>45916</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>45916</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>45673.63548611111</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>45673.63410879629</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>45525</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>44641</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>45331.60685185185</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>45197</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>44768.536875</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>45365</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>45883.48207175926</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>45883.59122685185</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         <v>45673.393125</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>45673.43063657408</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>45775.33391203704</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>45951</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>45957</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>45958</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>45709</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>44917.50982638889</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>44669</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>45974</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>45309</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>45356</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>45772</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>45772</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         <v>45772</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>44945</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>45219</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         <v>45936</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>45331</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>45358</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>45548</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>44518.82853009259</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>45520</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>45741</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>45939</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>44571</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>45103</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>44642</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>45099</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>45216</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>45266</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>45092</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>45069</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>45707</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>45092</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>44382</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>45258</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>44983.78570601852</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>44670.55493055555</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>45520</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>45782.57175925926</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>45741</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>45296</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>45370.56016203704</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>45812.71793981481</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>

--- a/Översikt SÖLVESBORG.xlsx
+++ b/Översikt SÖLVESBORG.xlsx
@@ -575,7 +575,7 @@
         <v>45065</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>45590</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>44253</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>44509</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -852,14 +852,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 28524-2021</t>
+          <t>A 28206-2021</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44356</v>
+        <v>44355</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.1</v>
+        <v>5.9</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -909,14 +909,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 28206-2021</t>
+          <t>A 28524-2021</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44355</v>
+        <v>44356</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>5.9</v>
+        <v>1.1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -973,7 +973,7 @@
         <v>44488</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44365</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>44616</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>44355</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44355</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>44641</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44622</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1365,14 +1365,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 19827-2024</t>
+          <t>A 17612-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45433.35063657408</v>
+        <v>45416.45724537037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1422,14 +1422,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 10403-2022</t>
+          <t>A 52084-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44623</v>
+        <v>45216</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1479,14 +1479,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 31261-2021</t>
+          <t>A 22561-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44368</v>
+        <v>45069</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1536,14 +1536,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 46500-2023</t>
+          <t>A 20320-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45197</v>
+        <v>45775.33391203704</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.5</v>
+        <v>4.2</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1593,14 +1593,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 63571-2023</t>
+          <t>A 62334-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45275.39289351852</v>
+        <v>45266</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.8</v>
+        <v>6.2</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1650,14 +1650,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 17612-2024</t>
+          <t>A 28228-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45416.45724537037</v>
+        <v>44355</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1707,14 +1707,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 14136-2025</t>
+          <t>A 16188-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45738</v>
+        <v>44669</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.5</v>
+        <v>3.7</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1764,14 +1764,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 44871-2023</t>
+          <t>A 31261-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45190</v>
+        <v>44368</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1821,14 +1821,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 7134-2023</t>
+          <t>A 12848-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44970.43828703704</v>
+        <v>44642</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1878,14 +1878,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 52086-2023</t>
+          <t>A 46500-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45216</v>
+        <v>45197</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>8.1</v>
+        <v>0.5</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1935,14 +1935,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 22906-2024</t>
+          <t>A 34727-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45448</v>
+        <v>44382</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1992,14 +1992,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 24313-2025</t>
+          <t>A 33766-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45797.52783564815</v>
+        <v>45520</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2049,14 +2049,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 40054-2025</t>
+          <t>A 14136-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45894</v>
+        <v>45738</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2106,14 +2106,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 20164-2023</t>
+          <t>A 16297-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45053</v>
+        <v>44670.55493055555</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2163,14 +2163,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 44752-2023</t>
+          <t>A 39130-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45184</v>
+        <v>45548</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4.6</v>
+        <v>2.3</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2220,14 +2220,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 41565-2025</t>
+          <t>A 63571-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45901.60275462963</v>
+        <v>45275.39289351852</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.9</v>
+        <v>1.8</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2277,14 +2277,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 20316-2025</t>
+          <t>A 26493-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45775.32983796296</v>
+        <v>45092</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2334,14 +2334,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 28228-2021</t>
+          <t>A 7134-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44355</v>
+        <v>44970.43828703704</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2391,14 +2391,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 32517-2025</t>
+          <t>A 9602-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45838.47891203704</v>
+        <v>44983.78570601852</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2448,14 +2448,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 32525-2025</t>
+          <t>A 26478-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45838.48854166667</v>
+        <v>45092</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.5</v>
+        <v>4.8</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2505,14 +2505,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 32514-2025</t>
+          <t>A 28080-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45838.475625</v>
+        <v>45099</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2562,14 +2562,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 52084-2023</t>
+          <t>A 52086-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
         <v>45216</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.6</v>
+        <v>8.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2619,14 +2619,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 32974-2025</t>
+          <t>A 19827-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45839.7596875</v>
+        <v>45433.35063657408</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2676,14 +2676,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 33817-2025</t>
+          <t>A 30992-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45842.46084490741</v>
+        <v>44768.536875</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2733,14 +2733,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 32436-2025</t>
+          <t>A 28478-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45838</v>
+        <v>45103</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>6.3</v>
+        <v>3</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2790,14 +2790,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 44493-2025</t>
+          <t>A 1070-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45916</v>
+        <v>44571</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2847,14 +2847,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 44495-2025</t>
+          <t>A 33742-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45916</v>
+        <v>45520</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>5.2</v>
+        <v>0.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2904,14 +2904,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 2327-2025</t>
+          <t>A 2200-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45673.63548611111</v>
+        <v>45673.393125</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2961,14 +2961,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 2325-2025</t>
+          <t>A 2210-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45673.63410879629</v>
+        <v>45673.43063657408</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3018,14 +3018,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 34394-2024</t>
+          <t>A 44871-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45525</v>
+        <v>45190</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.1</v>
+        <v>3.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3075,14 +3075,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 12298-2022</t>
+          <t>A 47242-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44641</v>
+        <v>45197</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.4</v>
+        <v>11.6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3132,14 +3132,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 5407-2024</t>
+          <t>A 66447-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45331.60685185185</v>
+        <v>44518.82853009259</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3189,14 +3189,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 47242-2023</t>
+          <t>A 38317-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45197</v>
+        <v>45883.48207175926</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>11.6</v>
+        <v>2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3246,14 +3246,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 30992-2022</t>
+          <t>A 38406-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44768.536875</v>
+        <v>45883.59122685185</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3303,14 +3303,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 10390-2024</t>
+          <t>A 24313-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45365</v>
+        <v>45797.52783564815</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.4</v>
+        <v>3.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3360,14 +3360,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 38317-2025</t>
+          <t>A 52089-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45883.48207175926</v>
+        <v>45216</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3417,14 +3417,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 38406-2025</t>
+          <t>A 8130-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45883.59122685185</v>
+        <v>45707</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3474,14 +3474,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 2200-2025</t>
+          <t>A 2327-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45673.393125</v>
+        <v>45673.63548611111</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3531,14 +3531,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 2210-2025</t>
+          <t>A 2325-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45673.43063657408</v>
+        <v>45673.63410879629</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3588,14 +3588,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 20320-2025</t>
+          <t>A 12298-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45775.33391203704</v>
+        <v>44641</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3645,14 +3645,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 51772-2025</t>
+          <t>A 40054-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45951</v>
+        <v>45894</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3702,14 +3702,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 52893-2025</t>
+          <t>A 22906-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45957</v>
+        <v>45448</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3759,14 +3759,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 53293-2025</t>
+          <t>A 5339-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45958</v>
+        <v>45331</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3816,14 +3816,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 8523-2025</t>
+          <t>A 41565-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45709</v>
+        <v>45901.60275462963</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>6.7</v>
+        <v>3.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3873,14 +3873,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 61767-2022</t>
+          <t>A 10390-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44917.50982638889</v>
+        <v>45365</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3892,13 +3892,8 @@
           <t>SÖLVESBORG</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3935,14 +3930,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 16188-2022</t>
+          <t>A 5407-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44669</v>
+        <v>45331.60685185185</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3955,7 +3950,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.7</v>
+        <v>0.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -3992,14 +3987,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 56570-2025</t>
+          <t>A 9316-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45974</v>
+        <v>45358</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4012,7 +4007,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4049,14 +4044,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 2089-2024</t>
+          <t>A 10403-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45309</v>
+        <v>44623</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4069,7 +4064,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.7</v>
+        <v>1.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4106,14 +4101,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 8837-2024</t>
+          <t>A 32436-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45356</v>
+        <v>45838</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4126,7 +4121,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.7</v>
+        <v>6.3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4163,14 +4158,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 20093-2025</t>
+          <t>A 44495-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45772</v>
+        <v>45916</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4183,7 +4178,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.1</v>
+        <v>5.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4220,14 +4215,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 20155-2025</t>
+          <t>A 8837-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45772</v>
+        <v>45356</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4240,7 +4235,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4277,14 +4272,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 20127-2025</t>
+          <t>A 44493-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45772</v>
+        <v>45916</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4297,7 +4292,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4341,7 +4336,7 @@
         <v>44945</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4391,14 +4386,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 51284-2023</t>
+          <t>A 20164-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45219</v>
+        <v>45053</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4411,7 +4406,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4448,14 +4443,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 48751-2025</t>
+          <t>A 61767-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45936</v>
+        <v>44917.50982638889</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4467,8 +4462,13 @@
           <t>SÖLVESBORG</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4505,14 +4505,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 5339-2024</t>
+          <t>A 8523-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45331</v>
+        <v>45709</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4525,7 +4525,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.9</v>
+        <v>6.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4562,14 +4562,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 9316-2024</t>
+          <t>A 60469-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45358</v>
+        <v>45258</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>4</v>
+        <v>8.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4619,14 +4619,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 39130-2024</t>
+          <t>A 51772-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45548</v>
+        <v>45951</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4676,14 +4676,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 66447-2021</t>
+          <t>A 44752-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44518.82853009259</v>
+        <v>45184</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.6</v>
+        <v>4.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4733,14 +4733,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 33766-2024</t>
+          <t>A 53293-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45520</v>
+        <v>45958</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4790,14 +4790,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 14481-2025</t>
+          <t>A 52893-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45741</v>
+        <v>45957</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4847,14 +4847,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 49688-2025</t>
+          <t>A 20316-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45939</v>
+        <v>45775.32983796296</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>16.1</v>
+        <v>1.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4904,14 +4904,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 1070-2022</t>
+          <t>A 51284-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44571</v>
+        <v>45219</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -4961,14 +4961,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 28478-2023</t>
+          <t>A 2089-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45103</v>
+        <v>45309</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5018,14 +5018,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 12848-2022</t>
+          <t>A 56570-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44642</v>
+        <v>45974</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.1</v>
+        <v>4.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5075,14 +5075,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 28080-2023</t>
+          <t>A 34394-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45099</v>
+        <v>45525</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.6</v>
+        <v>0.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5132,14 +5132,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 52089-2023</t>
+          <t>A 21464-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45216</v>
+        <v>45782.57175925926</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5189,14 +5189,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 62334-2023</t>
+          <t>A 14475-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45266</v>
+        <v>45741</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>6.2</v>
+        <v>3.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5246,14 +5246,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 26493-2023</t>
+          <t>A 20127-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45092</v>
+        <v>45772</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5303,14 +5303,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 22561-2023</t>
+          <t>A 20093-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45069</v>
+        <v>45772</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5360,14 +5360,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 8130-2025</t>
+          <t>A 20155-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45707</v>
+        <v>45772</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5417,14 +5417,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 26478-2023</t>
+          <t>A 445-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45092</v>
+        <v>45296</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>4.8</v>
+        <v>1.4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5474,14 +5474,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 34727-2021</t>
+          <t>A 10997-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44382</v>
+        <v>45370.56016203704</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5531,14 +5531,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 60469-2023</t>
+          <t>A 48751-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45258</v>
+        <v>45936</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>8.4</v>
+        <v>2.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5588,14 +5588,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 9602-2023</t>
+          <t>A 27402-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44983.78570601852</v>
+        <v>45812.71793981481</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5645,14 +5645,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 16297-2022</t>
+          <t>A 14481-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44670.55493055555</v>
+        <v>45741</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5702,14 +5702,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 33742-2024</t>
+          <t>A 32517-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45520</v>
+        <v>45838.47891203704</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5759,14 +5759,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 21464-2025</t>
+          <t>A 32514-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45782.57175925926</v>
+        <v>45838.475625</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>5.5</v>
+        <v>0.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5816,14 +5816,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 14475-2025</t>
+          <t>A 32525-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45741</v>
+        <v>45838.48854166667</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5873,14 +5873,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 445-2024</t>
+          <t>A 49688-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45296</v>
+        <v>45939</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.4</v>
+        <v>16.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -5930,14 +5930,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 10997-2024</t>
+          <t>A 32974-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45370.56016203704</v>
+        <v>45839.7596875</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -5987,14 +5987,14 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 27402-2025</t>
+          <t>A 33817-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45812.71793981481</v>
+        <v>45842.46084490741</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>

--- a/Översikt SÖLVESBORG.xlsx
+++ b/Översikt SÖLVESBORG.xlsx
@@ -575,7 +575,7 @@
         <v>45065</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>45590</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>44253</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>44509</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -852,14 +852,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 28206-2021</t>
+          <t>A 28524-2021</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44355</v>
+        <v>44356</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5.9</v>
+        <v>1.1</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -909,14 +909,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 28524-2021</t>
+          <t>A 28206-2021</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44356</v>
+        <v>44355</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.1</v>
+        <v>5.9</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -973,7 +973,7 @@
         <v>44488</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44365</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>44616</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>44355</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44355</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>44641</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44622</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1365,14 +1365,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 17612-2024</t>
+          <t>A 19827-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45416.45724537037</v>
+        <v>45433.35063657408</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1422,14 +1422,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 52084-2023</t>
+          <t>A 21464-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45216</v>
+        <v>45782.57175925926</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.6</v>
+        <v>5.5</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1479,14 +1479,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 22561-2023</t>
+          <t>A 14475-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45069</v>
+        <v>45741</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1536,14 +1536,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 20320-2025</t>
+          <t>A 10403-2022</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45775.33391203704</v>
+        <v>44623</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1593,14 +1593,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 62334-2023</t>
+          <t>A 24313-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45266</v>
+        <v>45797.52783564815</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>6.2</v>
+        <v>3.7</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1650,14 +1650,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 28228-2021</t>
+          <t>A 445-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44355</v>
+        <v>45296</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1707,14 +1707,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 16188-2022</t>
+          <t>A 40054-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44669</v>
+        <v>45894</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.7</v>
+        <v>2.3</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1764,14 +1764,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 31261-2021</t>
+          <t>A 41565-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44368</v>
+        <v>45901.60275462963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1821,14 +1821,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 12848-2022</t>
+          <t>A 31261-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44642</v>
+        <v>44368</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1878,14 +1878,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 46500-2023</t>
+          <t>A 10997-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45197</v>
+        <v>45370.56016203704</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1935,14 +1935,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 34727-2021</t>
+          <t>A 46500-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44382</v>
+        <v>45197</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1992,14 +1992,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 33766-2024</t>
+          <t>A 32436-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45520</v>
+        <v>45838</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.5</v>
+        <v>6.3</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2049,14 +2049,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 14136-2025</t>
+          <t>A 44493-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45738</v>
+        <v>45916</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.5</v>
+        <v>3.4</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2106,14 +2106,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 16297-2022</t>
+          <t>A 63571-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44670.55493055555</v>
+        <v>45275.39289351852</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2163,14 +2163,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 39130-2024</t>
+          <t>A 44495-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45548</v>
+        <v>45916</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.3</v>
+        <v>5.2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2220,14 +2220,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 63571-2023</t>
+          <t>A 27402-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45275.39289351852</v>
+        <v>45812.71793981481</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2277,14 +2277,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 26493-2023</t>
+          <t>A 17612-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45092</v>
+        <v>45416.45724537037</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>44970.43828703704</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2391,14 +2391,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 9602-2023</t>
+          <t>A 14136-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44983.78570601852</v>
+        <v>45738</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2448,14 +2448,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 26478-2023</t>
+          <t>A 44871-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45092</v>
+        <v>45190</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>4.8</v>
+        <v>3.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2505,14 +2505,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 28080-2023</t>
+          <t>A 52086-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45099</v>
+        <v>45216</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.6</v>
+        <v>8.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2562,14 +2562,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 52086-2023</t>
+          <t>A 22906-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45216</v>
+        <v>45448</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>8.1</v>
+        <v>2.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2619,14 +2619,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 19827-2024</t>
+          <t>A 20164-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45433.35063657408</v>
+        <v>45053</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2676,14 +2676,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 30992-2022</t>
+          <t>A 44752-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44768.536875</v>
+        <v>45184</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>4.6</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2733,14 +2733,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 28478-2023</t>
+          <t>A 20316-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45103</v>
+        <v>45775.32983796296</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2790,14 +2790,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 1070-2022</t>
+          <t>A 32517-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44571</v>
+        <v>45838.47891203704</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2847,14 +2847,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 33742-2024</t>
+          <t>A 32525-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45520</v>
+        <v>45838.48854166667</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2904,14 +2904,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 2200-2025</t>
+          <t>A 28228-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45673.393125</v>
+        <v>44355</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2961,14 +2961,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 2210-2025</t>
+          <t>A 32514-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45673.43063657408</v>
+        <v>45838.475625</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3018,14 +3018,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 44871-2023</t>
+          <t>A 32974-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45190</v>
+        <v>45839.7596875</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3075,14 +3075,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 47242-2023</t>
+          <t>A 33817-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45197</v>
+        <v>45842.46084490741</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>11.6</v>
+        <v>1.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3132,14 +3132,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 66447-2021</t>
+          <t>A 52084-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44518.82853009259</v>
+        <v>45216</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3189,14 +3189,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 38317-2025</t>
+          <t>A 51772-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45883.48207175926</v>
+        <v>45951</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3246,14 +3246,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 38406-2025</t>
+          <t>A 2327-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45883.59122685185</v>
+        <v>45673.63548611111</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3303,14 +3303,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 24313-2025</t>
+          <t>A 2325-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45797.52783564815</v>
+        <v>45673.63410879629</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3.7</v>
+        <v>1.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3360,14 +3360,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 52089-2023</t>
+          <t>A 34394-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45216</v>
+        <v>45525</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3.8</v>
+        <v>0.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3417,14 +3417,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 8130-2025</t>
+          <t>A 12298-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45707</v>
+        <v>44641</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.2</v>
+        <v>2.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3474,14 +3474,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 2327-2025</t>
+          <t>A 5407-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45673.63548611111</v>
+        <v>45331.60685185185</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3531,14 +3531,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 2325-2025</t>
+          <t>A 52893-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45673.63410879629</v>
+        <v>45957</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3588,14 +3588,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 12298-2022</t>
+          <t>A 53293-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44641</v>
+        <v>45958</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3645,14 +3645,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 40054-2025</t>
+          <t>A 47242-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45894</v>
+        <v>45197</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.3</v>
+        <v>11.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3702,14 +3702,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 22906-2024</t>
+          <t>A 30992-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45448</v>
+        <v>44768.536875</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3759,14 +3759,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 5339-2024</t>
+          <t>A 38317-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45331</v>
+        <v>45883.48207175926</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3816,14 +3816,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 41565-2025</t>
+          <t>A 38406-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45901.60275462963</v>
+        <v>45883.59122685185</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3.9</v>
+        <v>0.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3880,7 +3880,7 @@
         <v>45365</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3930,14 +3930,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 5407-2024</t>
+          <t>A 2200-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45331.60685185185</v>
+        <v>45673.393125</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -3987,14 +3987,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 9316-2024</t>
+          <t>A 2210-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45358</v>
+        <v>45673.43063657408</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4044,14 +4044,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 10403-2022</t>
+          <t>A 20320-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44623</v>
+        <v>45775.33391203704</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4101,14 +4101,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 32436-2025</t>
+          <t>A 56570-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45838</v>
+        <v>45974</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>6.3</v>
+        <v>4.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4158,14 +4158,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 44495-2025</t>
+          <t>A 8523-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45916</v>
+        <v>45709</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>5.2</v>
+        <v>6.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4215,14 +4215,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 8837-2024</t>
+          <t>A 61767-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45356</v>
+        <v>44917.50982638889</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4234,8 +4234,13 @@
           <t>SÖLVESBORG</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4272,14 +4277,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 44493-2025</t>
+          <t>A 20093-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45916</v>
+        <v>45772</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4292,7 +4297,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4329,14 +4334,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 2832-2023</t>
+          <t>A 20155-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44945</v>
+        <v>45772</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4349,7 +4354,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4386,14 +4391,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 20164-2023</t>
+          <t>A 20127-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45053</v>
+        <v>45772</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4406,7 +4411,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4443,14 +4448,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 61767-2022</t>
+          <t>A 16188-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44917.50982638889</v>
+        <v>44669</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4462,13 +4467,8 @@
           <t>SÖLVESBORG</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>0.8</v>
+        <v>3.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4505,14 +4505,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 8523-2025</t>
+          <t>A 2089-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45709</v>
+        <v>45309</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4525,7 +4525,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>6.7</v>
+        <v>3.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4562,14 +4562,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 60469-2023</t>
+          <t>A 8837-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45258</v>
+        <v>45356</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>8.4</v>
+        <v>0.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4619,14 +4619,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 51772-2025</t>
+          <t>A 48751-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45951</v>
+        <v>45936</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4676,14 +4676,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 44752-2023</t>
+          <t>A 2832-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45184</v>
+        <v>44945</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>4.6</v>
+        <v>1.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4733,14 +4733,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 53293-2025</t>
+          <t>A 51284-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45958</v>
+        <v>45219</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4790,14 +4790,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 52893-2025</t>
+          <t>A 5339-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45957</v>
+        <v>45331</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4847,14 +4847,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 20316-2025</t>
+          <t>A 9316-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45775.32983796296</v>
+        <v>45358</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4904,14 +4904,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 51284-2023</t>
+          <t>A 39130-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45219</v>
+        <v>45548</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -4961,14 +4961,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 2089-2024</t>
+          <t>A 66447-2021</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45309</v>
+        <v>44518.82853009259</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5018,14 +5018,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 56570-2025</t>
+          <t>A 33766-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45974</v>
+        <v>45520</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>4.4</v>
+        <v>1.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5075,14 +5075,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 34394-2024</t>
+          <t>A 14481-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45525</v>
+        <v>45741</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.1</v>
+        <v>1.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5132,14 +5132,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 21464-2025</t>
+          <t>A 49688-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45782.57175925926</v>
+        <v>45939</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>5.5</v>
+        <v>16.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5189,14 +5189,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 14475-2025</t>
+          <t>A 1070-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45741</v>
+        <v>44571</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5246,14 +5246,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 20127-2025</t>
+          <t>A 28478-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45772</v>
+        <v>45103</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5303,14 +5303,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 20093-2025</t>
+          <t>A 12848-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45772</v>
+        <v>44642</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5360,14 +5360,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 20155-2025</t>
+          <t>A 28080-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45772</v>
+        <v>45099</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5417,14 +5417,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 445-2024</t>
+          <t>A 52089-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45296</v>
+        <v>45216</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5474,14 +5474,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 10997-2024</t>
+          <t>A 62334-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45370.56016203704</v>
+        <v>45266</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>6.2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5531,14 +5531,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 48751-2025</t>
+          <t>A 26493-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45936</v>
+        <v>45092</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5588,14 +5588,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 27402-2025</t>
+          <t>A 22561-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45812.71793981481</v>
+        <v>45069</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5645,14 +5645,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 14481-2025</t>
+          <t>A 8130-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45741</v>
+        <v>45707</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5702,14 +5702,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 32517-2025</t>
+          <t>A 26478-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45838.47891203704</v>
+        <v>45092</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.6</v>
+        <v>4.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5759,14 +5759,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 32514-2025</t>
+          <t>A 34727-2021</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45838.475625</v>
+        <v>44382</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5816,14 +5816,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 32525-2025</t>
+          <t>A 60469-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45838.48854166667</v>
+        <v>45258</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.5</v>
+        <v>8.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5873,14 +5873,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 49688-2025</t>
+          <t>A 9602-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45939</v>
+        <v>44983.78570601852</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>16.1</v>
+        <v>2.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -5930,14 +5930,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 32974-2025</t>
+          <t>A 16297-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45839.7596875</v>
+        <v>44670.55493055555</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -5987,14 +5987,14 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 33817-2025</t>
+          <t>A 33742-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45842.46084490741</v>
+        <v>45520</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>

--- a/Översikt SÖLVESBORG.xlsx
+++ b/Översikt SÖLVESBORG.xlsx
@@ -575,7 +575,7 @@
         <v>45065</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>45590</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>44253</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>44509</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>44356</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44355</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>44488</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44365</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1080,14 +1080,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 9520-2022</t>
+          <t>A 28198-2021</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44616</v>
+        <v>44355</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1137,14 +1137,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 28198-2021</t>
+          <t>A 28216-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
         <v>44355</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1194,14 +1194,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 28216-2021</t>
+          <t>A 9520-2022</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44355</v>
+        <v>44616</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.1</v>
+        <v>7</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>44641</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44622</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1365,14 +1365,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 19827-2024</t>
+          <t>A 16188-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45433.35063657408</v>
+        <v>44669</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.5</v>
+        <v>3.7</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1422,14 +1422,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 21464-2025</t>
+          <t>A 2832-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45782.57175925926</v>
+        <v>44945</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>5.5</v>
+        <v>1.1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1479,14 +1479,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 14475-2025</t>
+          <t>A 22561-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45741</v>
+        <v>45069</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1536,14 +1536,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 10403-2022</t>
+          <t>A 12848-2022</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44623</v>
+        <v>44642</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1593,14 +1593,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 24313-2025</t>
+          <t>A 20164-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45797.52783564815</v>
+        <v>45053</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.7</v>
+        <v>1.8</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1650,14 +1650,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 445-2024</t>
+          <t>A 20320-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45296</v>
+        <v>45775.33391203704</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.4</v>
+        <v>4.2</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1707,14 +1707,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 40054-2025</t>
+          <t>A 14136-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45894</v>
+        <v>45738</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1764,14 +1764,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 41565-2025</t>
+          <t>A 16297-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45901.60275462963</v>
+        <v>44670.55493055555</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.9</v>
+        <v>1.3</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1821,14 +1821,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 31261-2021</t>
+          <t>A 61767-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44368</v>
+        <v>44917.50982638889</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1840,8 +1840,13 @@
           <t>SÖLVESBORG</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G23" t="n">
-        <v>3.1</v>
+        <v>0.8</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1878,14 +1883,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 10997-2024</t>
+          <t>A 63571-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45370.56016203704</v>
+        <v>45275.39289351852</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1898,7 +1903,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1935,14 +1940,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 46500-2023</t>
+          <t>A 52084-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45197</v>
+        <v>45216</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1955,7 +1960,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1992,14 +1997,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 32436-2025</t>
+          <t>A 26478-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45838</v>
+        <v>45092</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2012,7 +2017,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>6.3</v>
+        <v>4.8</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2049,14 +2054,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 44493-2025</t>
+          <t>A 28080-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45916</v>
+        <v>45099</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2069,7 +2074,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2106,14 +2111,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 63571-2023</t>
+          <t>A 8523-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45275.39289351852</v>
+        <v>45709</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2126,7 +2131,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.8</v>
+        <v>6.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2163,14 +2168,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 44495-2025</t>
+          <t>A 62334-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45916</v>
+        <v>45266</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2183,7 +2188,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2220,14 +2225,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 27402-2025</t>
+          <t>A 60469-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45812.71793981481</v>
+        <v>45258</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2240,7 +2245,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.7</v>
+        <v>8.4</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2277,14 +2282,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 17612-2024</t>
+          <t>A 28228-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45416.45724537037</v>
+        <v>44355</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2297,7 +2302,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2334,14 +2339,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 7134-2023</t>
+          <t>A 44752-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44970.43828703704</v>
+        <v>45184</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2354,7 +2359,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.5</v>
+        <v>4.6</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2391,14 +2396,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 14136-2025</t>
+          <t>A 31261-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45738</v>
+        <v>44368</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2411,7 +2416,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2448,14 +2453,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 44871-2023</t>
+          <t>A 9602-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45190</v>
+        <v>44983.78570601852</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2468,7 +2473,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2505,14 +2510,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 52086-2023</t>
+          <t>A 20316-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45216</v>
+        <v>45775.32983796296</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2525,7 +2530,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>8.1</v>
+        <v>1.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2562,14 +2567,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 22906-2024</t>
+          <t>A 34727-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45448</v>
+        <v>44382</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2582,7 +2587,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2619,14 +2624,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 20164-2023</t>
+          <t>A 12298-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45053</v>
+        <v>44641</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2639,7 +2644,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2676,14 +2681,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 44752-2023</t>
+          <t>A 51284-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45184</v>
+        <v>45219</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2696,7 +2701,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4.6</v>
+        <v>1.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2733,14 +2738,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 20316-2025</t>
+          <t>A 22906-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45775.32983796296</v>
+        <v>45448</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2753,7 +2758,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2790,14 +2795,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 32517-2025</t>
+          <t>A 10390-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45838.47891203704</v>
+        <v>45365</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2810,7 +2815,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2847,14 +2852,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 32525-2025</t>
+          <t>A 2089-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45838.48854166667</v>
+        <v>45309</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2867,7 +2872,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.5</v>
+        <v>3.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2904,14 +2909,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 28228-2021</t>
+          <t>A 17612-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44355</v>
+        <v>45416.45724537037</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2924,7 +2929,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2961,14 +2966,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 32514-2025</t>
+          <t>A 46500-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45838.475625</v>
+        <v>45197</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3018,14 +3023,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 32974-2025</t>
+          <t>A 34394-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45839.7596875</v>
+        <v>45525</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3038,7 +3043,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.9</v>
+        <v>0.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3075,14 +3080,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 33817-2025</t>
+          <t>A 33766-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45842.46084490741</v>
+        <v>45520</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3095,7 +3100,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3132,14 +3137,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 52084-2023</t>
+          <t>A 21464-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45216</v>
+        <v>45782.57175925926</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3152,7 +3157,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.6</v>
+        <v>5.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3189,14 +3194,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 51772-2025</t>
+          <t>A 38317-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45951</v>
+        <v>45883.48207175926</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3209,7 +3214,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3246,14 +3251,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 2327-2025</t>
+          <t>A 14475-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45673.63548611111</v>
+        <v>45741</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3266,7 +3271,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3303,14 +3308,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 2325-2025</t>
+          <t>A 38406-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45673.63410879629</v>
+        <v>45883.59122685185</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3323,7 +3328,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3360,14 +3365,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 34394-2024</t>
+          <t>A 2200-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45525</v>
+        <v>45673.393125</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3380,7 +3385,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3417,14 +3422,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 12298-2022</t>
+          <t>A 2210-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44641</v>
+        <v>45673.43063657408</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3437,7 +3442,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3474,14 +3479,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 5407-2024</t>
+          <t>A 39130-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45331.60685185185</v>
+        <v>45548</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3494,7 +3499,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3531,14 +3536,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 52893-2025</t>
+          <t>A 24313-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45957</v>
+        <v>45797.52783564815</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3551,7 +3556,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3588,14 +3593,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 53293-2025</t>
+          <t>A 26493-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45958</v>
+        <v>45092</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3608,7 +3613,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.9</v>
+        <v>3.2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3645,14 +3650,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 47242-2023</t>
+          <t>A 7134-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45197</v>
+        <v>44970.43828703704</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3665,7 +3670,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>11.6</v>
+        <v>0.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3702,14 +3707,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 30992-2022</t>
+          <t>A 44871-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44768.536875</v>
+        <v>45190</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3722,7 +3727,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3759,14 +3764,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 38317-2025</t>
+          <t>A 47242-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45883.48207175926</v>
+        <v>45197</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3779,7 +3784,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>11.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3816,14 +3821,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 38406-2025</t>
+          <t>A 40054-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45883.59122685185</v>
+        <v>45894</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3836,7 +3841,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3873,14 +3878,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 10390-2024</t>
+          <t>A 445-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45365</v>
+        <v>45296</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3930,14 +3935,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 2200-2025</t>
+          <t>A 52086-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45673.393125</v>
+        <v>45216</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3950,7 +3955,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.5</v>
+        <v>8.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -3987,14 +3992,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 2210-2025</t>
+          <t>A 19827-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45673.43063657408</v>
+        <v>45433.35063657408</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4007,7 +4012,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4044,14 +4049,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 20320-2025</t>
+          <t>A 28478-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45775.33391203704</v>
+        <v>45103</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4064,7 +4069,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4101,14 +4106,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 56570-2025</t>
+          <t>A 41565-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45974</v>
+        <v>45901.60275462963</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4121,7 +4126,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4158,14 +4163,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 8523-2025</t>
+          <t>A 1070-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45709</v>
+        <v>44571</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4178,7 +4183,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>6.7</v>
+        <v>1.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4215,14 +4220,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 61767-2022</t>
+          <t>A 33742-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44917.50982638889</v>
+        <v>45520</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4234,13 +4239,8 @@
           <t>SÖLVESBORG</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4277,14 +4277,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 20093-2025</t>
+          <t>A 10997-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45772</v>
+        <v>45370.56016203704</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4334,14 +4334,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 20155-2025</t>
+          <t>A 32436-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45772</v>
+        <v>45838</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.4</v>
+        <v>6.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4391,14 +4391,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 20127-2025</t>
+          <t>A 44495-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45772</v>
+        <v>45916</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.1</v>
+        <v>5.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4448,14 +4448,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 16188-2022</t>
+          <t>A 44493-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44669</v>
+        <v>45916</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4505,14 +4505,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 2089-2024</t>
+          <t>A 8130-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45309</v>
+        <v>45707</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4525,7 +4525,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.7</v>
+        <v>0.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4562,14 +4562,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 8837-2024</t>
+          <t>A 27402-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45356</v>
+        <v>45812.71793981481</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4619,14 +4619,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 48751-2025</t>
+          <t>A 30992-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45936</v>
+        <v>44768.536875</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4676,14 +4676,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 2832-2023</t>
+          <t>A 51772-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44945</v>
+        <v>45951</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4733,14 +4733,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 51284-2023</t>
+          <t>A 32517-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45219</v>
+        <v>45838.47891203704</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4790,14 +4790,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 5339-2024</t>
+          <t>A 32514-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45331</v>
+        <v>45838.475625</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4847,14 +4847,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 9316-2024</t>
+          <t>A 32525-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45358</v>
+        <v>45838.48854166667</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4904,14 +4904,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 39130-2024</t>
+          <t>A 53293-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45548</v>
+        <v>45958</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -4961,14 +4961,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 66447-2021</t>
+          <t>A 52893-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44518.82853009259</v>
+        <v>45957</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5018,14 +5018,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 33766-2024</t>
+          <t>A 66447-2021</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45520</v>
+        <v>44518.82853009259</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5075,14 +5075,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 14481-2025</t>
+          <t>A 32974-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45741</v>
+        <v>45839.7596875</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5132,14 +5132,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 49688-2025</t>
+          <t>A 33817-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45939</v>
+        <v>45842.46084490741</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>16.1</v>
+        <v>1.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5189,14 +5189,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 1070-2022</t>
+          <t>A 52089-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44571</v>
+        <v>45216</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5246,14 +5246,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 28478-2023</t>
+          <t>A 56570-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45103</v>
+        <v>45974</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3</v>
+        <v>4.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5303,14 +5303,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 12848-2022</t>
+          <t>A 2327-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44642</v>
+        <v>45673.63548611111</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5360,14 +5360,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 28080-2023</t>
+          <t>A 2325-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45099</v>
+        <v>45673.63410879629</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5417,14 +5417,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 52089-2023</t>
+          <t>A 5339-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45216</v>
+        <v>45331</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3.8</v>
+        <v>1.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5474,14 +5474,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 62334-2023</t>
+          <t>A 20127-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45266</v>
+        <v>45772</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>6.2</v>
+        <v>2.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5531,14 +5531,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 26493-2023</t>
+          <t>A 20093-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45092</v>
+        <v>45772</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5588,14 +5588,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 22561-2023</t>
+          <t>A 20155-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45069</v>
+        <v>45772</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5645,14 +5645,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 8130-2025</t>
+          <t>A 5407-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45707</v>
+        <v>45331.60685185185</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5702,14 +5702,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 26478-2023</t>
+          <t>A 9316-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45092</v>
+        <v>45358</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5759,14 +5759,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 34727-2021</t>
+          <t>A 48751-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44382</v>
+        <v>45936</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5816,14 +5816,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 60469-2023</t>
+          <t>A 10403-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45258</v>
+        <v>44623</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>8.4</v>
+        <v>1.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5873,14 +5873,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 9602-2023</t>
+          <t>A 8837-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44983.78570601852</v>
+        <v>45356</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -5930,14 +5930,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 16297-2022</t>
+          <t>A 14481-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44670.55493055555</v>
+        <v>45741</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -5987,14 +5987,14 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 33742-2024</t>
+          <t>A 49688-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45520</v>
+        <v>45939</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.4</v>
+        <v>16.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>

--- a/Översikt SÖLVESBORG.xlsx
+++ b/Översikt SÖLVESBORG.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z96"/>
+  <dimension ref="A1:Z95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45065</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>45590</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -738,14 +738,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 9933-2021</t>
+          <t>A 64148-2021</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44253</v>
+        <v>44509</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.9</v>
+        <v>6.5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -795,14 +795,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 64148-2021</t>
+          <t>A 28524-2021</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44509</v>
+        <v>44356</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>6.5</v>
+        <v>1.1</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -852,14 +852,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 28524-2021</t>
+          <t>A 28206-2021</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44356</v>
+        <v>44355</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.1</v>
+        <v>5.9</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -909,14 +909,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 28206-2021</t>
+          <t>A 58607-2021</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44355</v>
+        <v>44488</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>5.9</v>
+        <v>3.2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -966,14 +966,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 58607-2021</t>
+          <t>A 30757-2021</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44488</v>
+        <v>44365</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1023,14 +1023,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 30757-2021</t>
+          <t>A 9520-2022</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44365</v>
+        <v>44616</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1087,7 +1087,7 @@
         <v>44355</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>44355</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1194,14 +1194,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 9520-2022</t>
+          <t>A 12683-2022</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44616</v>
+        <v>44641</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1251,14 +1251,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 12683-2022</t>
+          <t>A 10274-2022</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44641</v>
+        <v>44622</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.7</v>
+        <v>0.4</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1308,14 +1308,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 10274-2022</t>
+          <t>A 22561-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44622</v>
+        <v>45069</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1365,14 +1365,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 16188-2022</t>
+          <t>A 20320-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44669</v>
+        <v>45775.33391203704</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1422,14 +1422,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 2832-2023</t>
+          <t>A 52084-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44945</v>
+        <v>45216</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1479,14 +1479,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 22561-2023</t>
+          <t>A 22906-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45069</v>
+        <v>45448</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1536,14 +1536,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 12848-2022</t>
+          <t>A 12298-2022</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44642</v>
+        <v>44641</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1593,14 +1593,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 20164-2023</t>
+          <t>A 38317-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45053</v>
+        <v>45883.48207175926</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1650,14 +1650,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 20320-2025</t>
+          <t>A 10390-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45775.33391203704</v>
+        <v>45365</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1707,14 +1707,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 14136-2025</t>
+          <t>A 38406-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45738</v>
+        <v>45883.59122685185</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1764,14 +1764,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 16297-2022</t>
+          <t>A 24313-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44670.55493055555</v>
+        <v>45797.52783564815</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.3</v>
+        <v>3.7</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1821,14 +1821,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 61767-2022</t>
+          <t>A 17612-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44917.50982638889</v>
+        <v>45416.45724537037</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1840,13 +1840,8 @@
           <t>SÖLVESBORG</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G23" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1883,14 +1878,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 63571-2023</t>
+          <t>A 27402-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45275.39289351852</v>
+        <v>45812.71793981481</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1903,7 +1898,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1940,14 +1935,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 52084-2023</t>
+          <t>A 40054-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45216</v>
+        <v>45894</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1960,7 +1955,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1997,14 +1992,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 26478-2023</t>
+          <t>A 16188-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45092</v>
+        <v>44669</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2017,7 +2012,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>4.8</v>
+        <v>3.7</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2054,14 +2049,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 28080-2023</t>
+          <t>A 12848-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45099</v>
+        <v>44642</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2074,7 +2069,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2111,14 +2106,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 8523-2025</t>
+          <t>A 41565-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45709</v>
+        <v>45901.60275462963</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2131,7 +2126,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>6.7</v>
+        <v>3.9</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2168,14 +2163,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 62334-2023</t>
+          <t>A 14136-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45266</v>
+        <v>45738</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2188,7 +2183,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>6.2</v>
+        <v>0.5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2225,14 +2220,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 60469-2023</t>
+          <t>A 16297-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45258</v>
+        <v>44670.55493055555</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2245,7 +2240,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>8.4</v>
+        <v>1.3</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2282,14 +2277,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 28228-2021</t>
+          <t>A 32517-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44355</v>
+        <v>45838.47891203704</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2302,7 +2297,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2339,14 +2334,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 44752-2023</t>
+          <t>A 32514-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45184</v>
+        <v>45838.475625</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2359,7 +2354,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>4.6</v>
+        <v>0.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2396,14 +2391,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 31261-2021</t>
+          <t>A 32525-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44368</v>
+        <v>45838.48854166667</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2416,7 +2411,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2453,14 +2448,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 9602-2023</t>
+          <t>A 63571-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44983.78570601852</v>
+        <v>45275.39289351852</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2473,7 +2468,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2510,14 +2505,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 20316-2025</t>
+          <t>A 32974-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45775.32983796296</v>
+        <v>45839.7596875</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2530,7 +2525,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2567,14 +2562,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 34727-2021</t>
+          <t>A 26478-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44382</v>
+        <v>45092</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2587,7 +2582,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.8</v>
+        <v>4.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2624,14 +2619,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 12298-2022</t>
+          <t>A 28080-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44641</v>
+        <v>45099</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2644,7 +2639,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2681,14 +2676,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 51284-2023</t>
+          <t>A 33817-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45219</v>
+        <v>45842.46084490741</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2701,7 +2696,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2738,14 +2733,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 22906-2024</t>
+          <t>A 32436-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45448</v>
+        <v>45838</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2758,7 +2753,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.8</v>
+        <v>6.3</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2795,14 +2790,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 10390-2024</t>
+          <t>A 44495-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45365</v>
+        <v>45916</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2815,7 +2810,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.4</v>
+        <v>5.2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2852,14 +2847,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 2089-2024</t>
+          <t>A 44493-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45309</v>
+        <v>45916</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2872,7 +2867,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2909,14 +2904,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 17612-2024</t>
+          <t>A 62334-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45416.45724537037</v>
+        <v>45266</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2929,7 +2924,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.5</v>
+        <v>6.2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2966,14 +2961,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 46500-2023</t>
+          <t>A 28228-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45197</v>
+        <v>44355</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2986,7 +2981,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3023,14 +3018,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 34394-2024</t>
+          <t>A 31261-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45525</v>
+        <v>44368</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3043,7 +3038,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.1</v>
+        <v>3.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3080,14 +3075,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 33766-2024</t>
+          <t>A 34727-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45520</v>
+        <v>44382</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3100,7 +3095,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3137,14 +3132,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 21464-2025</t>
+          <t>A 46500-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45782.57175925926</v>
+        <v>45197</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3157,7 +3152,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>5.5</v>
+        <v>0.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3194,14 +3189,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 38317-2025</t>
+          <t>A 33766-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45883.48207175926</v>
+        <v>45520</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3214,7 +3209,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3251,14 +3246,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 14475-2025</t>
+          <t>A 39130-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45741</v>
+        <v>45548</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3271,7 +3266,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3308,14 +3303,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 38406-2025</t>
+          <t>A 26493-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45883.59122685185</v>
+        <v>45092</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3328,7 +3323,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.5</v>
+        <v>3.2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3365,14 +3360,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 2200-2025</t>
+          <t>A 7134-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45673.393125</v>
+        <v>44970.43828703704</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3422,14 +3417,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 2210-2025</t>
+          <t>A 51772-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45673.43063657408</v>
+        <v>45951</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3442,7 +3437,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3479,14 +3474,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 39130-2024</t>
+          <t>A 52086-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45548</v>
+        <v>45216</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3499,7 +3494,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.3</v>
+        <v>8.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3536,14 +3531,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 24313-2025</t>
+          <t>A 19827-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45797.52783564815</v>
+        <v>45433.35063657408</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3556,7 +3551,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.7</v>
+        <v>0.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3593,14 +3588,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 26493-2023</t>
+          <t>A 53293-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45092</v>
+        <v>45958</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3613,7 +3608,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3650,14 +3645,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 7134-2023</t>
+          <t>A 52893-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44970.43828703704</v>
+        <v>45957</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3670,7 +3665,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3707,14 +3702,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 44871-2023</t>
+          <t>A 28478-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45190</v>
+        <v>45103</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3727,7 +3722,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3764,14 +3759,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 47242-2023</t>
+          <t>A 1070-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45197</v>
+        <v>44571</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3784,7 +3779,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>11.6</v>
+        <v>1.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3821,14 +3816,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 40054-2025</t>
+          <t>A 33742-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45894</v>
+        <v>45520</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3841,7 +3836,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.3</v>
+        <v>0.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3878,14 +3873,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 445-2024</t>
+          <t>A 56570-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45296</v>
+        <v>45974</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3898,7 +3893,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.4</v>
+        <v>4.4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3935,14 +3930,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 52086-2023</t>
+          <t>A 9602-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45216</v>
+        <v>44983.78570601852</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3955,7 +3950,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>8.1</v>
+        <v>2.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -3992,14 +3987,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 19827-2024</t>
+          <t>A 20127-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45433.35063657408</v>
+        <v>45772</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4012,7 +4007,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4049,14 +4044,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 28478-2023</t>
+          <t>A 20093-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45103</v>
+        <v>45772</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4069,7 +4064,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4106,14 +4101,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 41565-2025</t>
+          <t>A 20155-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45901.60275462963</v>
+        <v>45772</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4126,7 +4121,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.9</v>
+        <v>1.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4163,14 +4158,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 1070-2022</t>
+          <t>A 2200-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44571</v>
+        <v>45673.393125</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4183,7 +4178,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4220,14 +4215,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 33742-2024</t>
+          <t>A 2210-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45520</v>
+        <v>45673.43063657408</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4240,7 +4235,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4277,14 +4272,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 10997-2024</t>
+          <t>A 44871-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45370.56016203704</v>
+        <v>45190</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4297,7 +4292,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4334,14 +4329,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 32436-2025</t>
+          <t>A 47242-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45838</v>
+        <v>45197</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4354,7 +4349,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>6.3</v>
+        <v>11.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4391,14 +4386,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 44495-2025</t>
+          <t>A 48751-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45916</v>
+        <v>45936</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4411,7 +4406,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>5.2</v>
+        <v>2.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4448,14 +4443,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 44493-2025</t>
+          <t>A 8130-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45916</v>
+        <v>45707</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4468,7 +4463,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3.4</v>
+        <v>0.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4505,14 +4500,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 8130-2025</t>
+          <t>A 30992-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45707</v>
+        <v>44768.536875</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4525,7 +4520,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4562,14 +4557,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 27402-2025</t>
+          <t>A 66447-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45812.71793981481</v>
+        <v>44518.82853009259</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4582,7 +4577,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4619,14 +4614,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 30992-2022</t>
+          <t>A 14481-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44768.536875</v>
+        <v>45741</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4639,7 +4634,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4676,14 +4671,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 51772-2025</t>
+          <t>A 52089-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45951</v>
+        <v>45216</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4696,7 +4691,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4733,14 +4728,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 32517-2025</t>
+          <t>A 2327-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45838.47891203704</v>
+        <v>45673.63548611111</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4753,7 +4748,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4790,14 +4785,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 32514-2025</t>
+          <t>A 2325-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45838.475625</v>
+        <v>45673.63410879629</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4810,7 +4805,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4847,14 +4842,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 32525-2025</t>
+          <t>A 49688-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45838.48854166667</v>
+        <v>45939</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4867,7 +4862,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.5</v>
+        <v>16.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4904,14 +4899,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 53293-2025</t>
+          <t>A 5339-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45958</v>
+        <v>45331</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4924,7 +4919,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -4961,14 +4956,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 52893-2025</t>
+          <t>A 5407-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45957</v>
+        <v>45331.60685185185</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4981,7 +4976,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5018,14 +5013,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 66447-2021</t>
+          <t>A 9316-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44518.82853009259</v>
+        <v>45358</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5038,7 +5033,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5075,14 +5070,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 32974-2025</t>
+          <t>A 10403-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45839.7596875</v>
+        <v>44623</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5095,7 +5090,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5132,14 +5127,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 33817-2025</t>
+          <t>A 8837-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45842.46084490741</v>
+        <v>45356</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5152,7 +5147,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5189,14 +5184,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 52089-2023</t>
+          <t>A 2832-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45216</v>
+        <v>44945</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5209,7 +5204,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.8</v>
+        <v>1.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5246,14 +5241,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 56570-2025</t>
+          <t>A 20164-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45974</v>
+        <v>45053</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5266,7 +5261,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>4.4</v>
+        <v>1.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5303,14 +5298,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 2327-2025</t>
+          <t>A 61767-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45673.63548611111</v>
+        <v>44917.50982638889</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5322,8 +5317,13 @@
           <t>SÖLVESBORG</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5360,14 +5360,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 2325-2025</t>
+          <t>A 8523-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45673.63410879629</v>
+        <v>45709</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.6</v>
+        <v>6.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5417,14 +5417,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 5339-2024</t>
+          <t>A 60469-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45331</v>
+        <v>45258</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.9</v>
+        <v>8.4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5474,14 +5474,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 20127-2025</t>
+          <t>A 44752-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45772</v>
+        <v>45184</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.1</v>
+        <v>4.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5531,14 +5531,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 20093-2025</t>
+          <t>A 20316-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45772</v>
+        <v>45775.32983796296</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5588,14 +5588,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 20155-2025</t>
+          <t>A 51284-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45772</v>
+        <v>45219</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5645,14 +5645,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 5407-2024</t>
+          <t>A 2089-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45331.60685185185</v>
+        <v>45309</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.8</v>
+        <v>3.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5702,14 +5702,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 9316-2024</t>
+          <t>A 34394-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45358</v>
+        <v>45525</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>4</v>
+        <v>0.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5759,14 +5759,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 48751-2025</t>
+          <t>A 21464-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45936</v>
+        <v>45782.57175925926</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5816,14 +5816,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 10403-2022</t>
+          <t>A 14475-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44623</v>
+        <v>45741</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5873,14 +5873,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 8837-2024</t>
+          <t>A 445-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45356</v>
+        <v>45296</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -5927,17 +5927,17 @@
       </c>
       <c r="R94" s="2" t="inlineStr"/>
     </row>
-    <row r="95" ht="15" customHeight="1">
+    <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 14481-2025</t>
+          <t>A 10997-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45741</v>
+        <v>45370.56016203704</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -5983,63 +5983,6 @@
         <v>0</v>
       </c>
       <c r="R95" s="2" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>A 49688-2025</t>
-        </is>
-      </c>
-      <c r="B96" s="1" t="n">
-        <v>45939</v>
-      </c>
-      <c r="C96" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>BLEKINGE LÄN</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>SÖLVESBORG</t>
-        </is>
-      </c>
-      <c r="G96" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0</v>
-      </c>
-      <c r="L96" t="n">
-        <v>0</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0</v>
-      </c>
-      <c r="N96" t="n">
-        <v>0</v>
-      </c>
-      <c r="O96" t="n">
-        <v>0</v>
-      </c>
-      <c r="P96" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q96" t="n">
-        <v>0</v>
-      </c>
-      <c r="R96" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt SÖLVESBORG.xlsx
+++ b/Översikt SÖLVESBORG.xlsx
@@ -575,7 +575,7 @@
         <v>45065</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>45590</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>44509</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>44356</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>44355</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44488</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>44365</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44616</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>44355</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>44355</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44641</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>44622</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>45069</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>45775.33391203704</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>45216</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>45448</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>44641</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>45883.48207175926</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>45365</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>45883.59122685185</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>45797.52783564815</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>45416.45724537037</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>45812.71793981481</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>45894</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>44669</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>44642</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>45901.60275462963</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>45738</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>44670.55493055555</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>45838.47891203704</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>45838.475625</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>45838.48854166667</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>45275.39289351852</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>45839.7596875</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>45092</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>45099</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>45842.46084490741</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>45838</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>45916</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>45916</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>45266</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>44355</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>44368</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>44382</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>45197</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>45520</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>45548</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>45092</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>44970.43828703704</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>45951</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         <v>45216</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>45433.35063657408</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>45958</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>45957</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>45103</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>44571</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>45520</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>45974</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3937,7 +3937,7 @@
         <v>44983.78570601852</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>45772</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>45772</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
         <v>45772</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>45673.393125</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>45673.43063657408</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>45190</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>45197</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>45936</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>45707</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
         <v>44768.536875</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>44518.82853009259</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>45741</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>45216</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>45673.63548611111</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>45673.63410879629</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>45939</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>45331</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>45331.60685185185</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>45358</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>44623</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>45356</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5191,7 +5191,7 @@
         <v>44945</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>45053</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>44917.50982638889</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>45709</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>45258</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>45184</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>45775.32983796296</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>45219</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>45309</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>45525</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>45782.57175925926</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>45741</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>45296</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>45370.56016203704</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>

--- a/Översikt SÖLVESBORG.xlsx
+++ b/Översikt SÖLVESBORG.xlsx
@@ -575,7 +575,7 @@
         <v>45065</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>45590</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>44509</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>44356</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>44355</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44488</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>44365</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44616</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>44355</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>44355</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44641</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>44622</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>45069</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>45775.33391203704</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>45216</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>45448</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>44641</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>45883.48207175926</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>45365</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>45883.59122685185</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>45797.52783564815</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>45416.45724537037</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>45812.71793981481</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>45894</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>44669</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>44642</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>45901.60275462963</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>45738</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>44670.55493055555</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>45838.47891203704</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>45838.475625</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>45838.48854166667</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>45275.39289351852</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>45839.7596875</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>45092</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>45099</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>45842.46084490741</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>45838</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>45916</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>45916</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>45266</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>44355</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>44368</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>44382</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>45197</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         <v>45520</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>45548</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>45092</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>44970.43828703704</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>45951</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         <v>45216</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>45433.35063657408</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>45958</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>45957</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>45103</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>44571</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>45520</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>45974</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3937,7 +3937,7 @@
         <v>44983.78570601852</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
         <v>45772</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>45772</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
         <v>45772</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>45673.393125</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         <v>45673.43063657408</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>45190</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>45197</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>45936</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>45707</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
         <v>44768.536875</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>44518.82853009259</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>45741</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>45216</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>45673.63548611111</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>45673.63410879629</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>45939</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>45331</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>45331.60685185185</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>45358</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>44623</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>45356</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5191,7 +5191,7 @@
         <v>44945</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>45053</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>44917.50982638889</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>45709</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>45258</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>45184</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>45775.32983796296</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>45219</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>45309</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>45525</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>45782.57175925926</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>45741</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>45296</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>45370.56016203704</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
